--- a/AAII_Financials/Quarterly/MNST_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MNST_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
   <si>
     <t>MNST</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,231 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1062100</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1017200</v>
+      </c>
+      <c r="F8" s="3">
         <v>1133600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>1104000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>946000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>924200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>1016200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>1015900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>850900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>810400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>909500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>907100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>742100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>753800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>788000</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>442000</v>
+      </c>
+      <c r="E9" s="3">
+        <v>422900</v>
+      </c>
+      <c r="F9" s="3">
         <v>476600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>458400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>387800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>386700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>422500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>410500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>349100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>319700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>351700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>336400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>274400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>267800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>297100</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>620100</v>
+      </c>
+      <c r="E10" s="3">
+        <v>594300</v>
+      </c>
+      <c r="F10" s="3">
         <v>657000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>645600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>558200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>537500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>593700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>605400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>501800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>490700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>557800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>570700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>467700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>486000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>490900</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,8 +906,10 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -925,8 +952,14 @@
       <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,75 +1002,87 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="E14" s="3">
         <v>300</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>300</v>
+      </c>
+      <c r="H14" s="3">
         <v>10700</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>14100</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>5500</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>7000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>-500</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>15900</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>200</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>19900</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>46300</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F15" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H15" s="3">
-        <v>0</v>
-      </c>
-      <c r="I15" s="3">
-        <v>0</v>
-      </c>
-      <c r="J15" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K15" s="3">
         <v>0</v>
@@ -1057,8 +1102,14 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1123,110 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>697100</v>
+      </c>
+      <c r="E17" s="3">
+        <v>700200</v>
+      </c>
+      <c r="F17" s="3">
         <v>738100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>725100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>634500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>617700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>676600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>658300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>571000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>543200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>592100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>557000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>477900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>502000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>497600</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>365000</v>
+      </c>
+      <c r="E18" s="3">
+        <v>317000</v>
+      </c>
+      <c r="F18" s="3">
         <v>395500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>378900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>311500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>306500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>339600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>357600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>279900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>267200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>317400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>350100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>264200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>251800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>290400</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,96 +1243,110 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>900</v>
+      </c>
+      <c r="E20" s="3">
+        <v>4200</v>
+      </c>
+      <c r="F20" s="3">
         <v>3100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>3000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>2700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>4400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>2900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>1800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>4000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-2600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-5000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>382400</v>
+      </c>
+      <c r="E21" s="3">
+        <v>338200</v>
+      </c>
+      <c r="F21" s="3">
         <v>414000</v>
       </c>
-      <c r="E21" s="3">
-        <v>399500</v>
-      </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
+        <v>399600</v>
+      </c>
+      <c r="H21" s="3">
         <v>329100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>325400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>356800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>372300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>295700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>281600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>333700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>359100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>276100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>257700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>299900</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1286,11 +1365,11 @@
       <c r="H22" s="3">
         <v>0</v>
       </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3">
-        <v>0</v>
+      <c r="I22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
@@ -1310,96 +1389,114 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>365900</v>
+      </c>
+      <c r="E23" s="3">
+        <v>321200</v>
+      </c>
+      <c r="F23" s="3">
         <v>398600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>382000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>314200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>310900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>342600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>358100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>281700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>267800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>321400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>347500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>264900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>246700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>289300</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>87000</v>
+      </c>
+      <c r="E24" s="3">
+        <v>66300</v>
+      </c>
+      <c r="F24" s="3">
         <v>99600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>89500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>52700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>70000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>74800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>88000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>65700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>24600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>102600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>124900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>86900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>73800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>97700</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1539,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>278800</v>
+      </c>
+      <c r="E26" s="3">
+        <v>255000</v>
+      </c>
+      <c r="F26" s="3">
         <v>298900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>292500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>261500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>240900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>267700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>270100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>216100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>243200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>218700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>222600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>178000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>172900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>191600</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>278800</v>
+      </c>
+      <c r="E27" s="3">
+        <v>255000</v>
+      </c>
+      <c r="F27" s="3">
         <v>298900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>292500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>261500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>240900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>267700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>270100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>216100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>243200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>218700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>222600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>178000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>172900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>191600</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1689,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1588,26 +1709,26 @@
       <c r="F29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="3">
-        <v>-1800</v>
+      <c r="G29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I29" s="3" t="s">
-        <v>8</v>
+      <c r="I29" s="3">
+        <v>-1800</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3">
-        <v>-41900</v>
+      <c r="K29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
+      <c r="M29" s="3">
+        <v>-41900</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
@@ -1618,8 +1739,14 @@
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1789,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,96 +1839,114 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="F32" s="3">
         <v>-3100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-3000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-2700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-4400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-2900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-1800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-4000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>2600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>5000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>278800</v>
+      </c>
+      <c r="E33" s="3">
+        <v>255000</v>
+      </c>
+      <c r="F33" s="3">
         <v>298900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>292500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>261500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>239100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>267700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>270100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>216100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>201300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>218700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>222600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>178000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>172900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>191600</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1989,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>278800</v>
+      </c>
+      <c r="E35" s="3">
+        <v>255000</v>
+      </c>
+      <c r="F35" s="3">
         <v>298900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>292500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>261500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>239100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>267700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>270100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>216100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>201300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>218700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>222600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>178000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>172900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>191600</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2118,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,404 +2138,460 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>701800</v>
+      </c>
+      <c r="E41" s="3">
+        <v>798000</v>
+      </c>
+      <c r="F41" s="3">
         <v>717600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>888200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>618300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>637500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>713700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>659700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>511400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>528600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>465600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>777700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>576300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>377600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>341500</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>233500</v>
+      </c>
+      <c r="E42" s="3">
+        <v>533100</v>
+      </c>
+      <c r="F42" s="3">
         <v>587400</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>358000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>263700</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>320700</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>457900</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>211100</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>585200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>672900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>630300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>323900</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>209400</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>220600</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>257700</v>
       </c>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>670600</v>
+      </c>
+      <c r="E43" s="3">
+        <v>540300</v>
+      </c>
+      <c r="F43" s="3">
         <v>648000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>688200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>596700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>484600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>620200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>592600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>525500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>449500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>535300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>537100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>572000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>573100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>592300</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>352300</v>
+      </c>
+      <c r="E44" s="3">
+        <v>360700</v>
+      </c>
+      <c r="F44" s="3">
         <v>317700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>299500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>300800</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>277700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>262100</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>275600</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>268600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>255700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>213300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>190600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>171300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>162000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>167800</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>90500</v>
+      </c>
+      <c r="E45" s="3">
+        <v>84200</v>
+      </c>
+      <c r="F45" s="3">
         <v>90100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>92800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>127800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>83700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>98800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>89800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>147900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>179600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>89700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>50900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>87800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>99100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>190700</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2048700</v>
+      </c>
+      <c r="E46" s="3">
+        <v>2316300</v>
+      </c>
+      <c r="F46" s="3">
         <v>2360800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>2326800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>1907300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>1804200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>2152700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>1828700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>2038500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>2086400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>1934300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>1880100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>1616800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>1432300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>1550000</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>13900</v>
+      </c>
+      <c r="E47" s="3">
+        <v>12900</v>
+      </c>
+      <c r="F47" s="3">
         <v>16300</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>8900</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>1900</v>
       </c>
-      <c r="G47" s="3">
-        <v>0</v>
-      </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
+        <v>0</v>
+      </c>
+      <c r="J47" s="3">
         <v>1600</v>
       </c>
-      <c r="I47" s="3">
-        <v>0</v>
-      </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
+        <v>0</v>
+      </c>
+      <c r="L47" s="3">
         <v>3500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>2400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>7000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>48600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>2400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>9500</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>326200</v>
+      </c>
+      <c r="E48" s="3">
+        <v>330000</v>
+      </c>
+      <c r="F48" s="3">
         <v>276600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>265500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>266800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>243100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>242900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>240700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>231200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>230300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>225400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>211600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>189600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>173300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>144600</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2384800</v>
+      </c>
+      <c r="E49" s="3">
+        <v>2383700</v>
+      </c>
+      <c r="F49" s="3">
         <v>2379100</v>
-      </c>
-      <c r="E49" s="3">
-        <v>2377500</v>
-      </c>
-      <c r="F49" s="3">
-        <v>2374500</v>
       </c>
       <c r="G49" s="3">
         <v>2377500</v>
       </c>
       <c r="H49" s="3">
+        <v>2374500</v>
+      </c>
+      <c r="I49" s="3">
+        <v>2377500</v>
+      </c>
+      <c r="J49" s="3">
         <v>2373900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>2371000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>2368300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>2365700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>2365100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>2364500</v>
-      </c>
-      <c r="N49" s="3">
-        <v>2364500</v>
-      </c>
-      <c r="O49" s="3">
-        <v>2364300</v>
       </c>
       <c r="P49" s="3">
         <v>2364500</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>2364300</v>
+      </c>
+      <c r="R49" s="3">
+        <v>2364500</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2634,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,52 +2684,64 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>107900</v>
+      </c>
+      <c r="E52" s="3">
+        <v>107400</v>
+      </c>
+      <c r="F52" s="3">
         <v>104600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>105700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>105400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>102100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>100300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>101700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>98600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>106300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>177100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>179300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>178300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>181200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>167800</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2784,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>4881500</v>
+      </c>
+      <c r="E54" s="3">
+        <v>5150400</v>
+      </c>
+      <c r="F54" s="3">
         <v>5137400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>5084300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>4655900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>4526900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>4871400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>4542100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>4740100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>4791000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>4708900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>4684100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>4349700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>4153500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>4236400</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2858,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,69 +2878,77 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>305500</v>
+      </c>
+      <c r="E57" s="3">
+        <v>274000</v>
+      </c>
+      <c r="F57" s="3">
         <v>304800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>292600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>267700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>248800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>278900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>267100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>226100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>245900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>229600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>242700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>178100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>193300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>172200</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E58" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F58" s="3">
         <v>1800</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>1200</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>900</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>8</v>
@@ -2689,11 +2956,11 @@
       <c r="J58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
-      </c>
-      <c r="L58" s="3">
-        <v>0</v>
+      <c r="K58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M58" s="3">
         <v>0</v>
@@ -2707,96 +2974,114 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>393800</v>
+      </c>
+      <c r="E59" s="3">
+        <v>385600</v>
+      </c>
+      <c r="F59" s="3">
         <v>407600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>411700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>362400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>352400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>377400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>347100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>308000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>314400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>368100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>318500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>291700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>277300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>300500</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>701500</v>
+      </c>
+      <c r="E60" s="3">
+        <v>661100</v>
+      </c>
+      <c r="F60" s="3">
         <v>714200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>705500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>631000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>601100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>656400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>614200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>534000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>560400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>597700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>561200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>469800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>470600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>472600</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2839,52 +3124,64 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>309000</v>
+      </c>
+      <c r="E62" s="3">
+        <v>318000</v>
+      </c>
+      <c r="F62" s="3">
         <v>315200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>321200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>326100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>314800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>321700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>322700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>330500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>335400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>343100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>346900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>349700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>353200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>365400</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3224,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3274,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3324,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1010600</v>
+      </c>
+      <c r="E66" s="3">
+        <v>979100</v>
+      </c>
+      <c r="F66" s="3">
         <v>1029400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>1026700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>957000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>916000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>978100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>936900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>864500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>895800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>940800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>908100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>819500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>823800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>838000</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3398,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3444,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3494,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3544,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3594,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>5301300</v>
+      </c>
+      <c r="E72" s="3">
+        <v>5022500</v>
+      </c>
+      <c r="F72" s="3">
         <v>4767500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>4468600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>4176100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>3914600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>3675500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>3407800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>3137700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>2928200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>2726900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>2508200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>2285500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>2107500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>1934600</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3694,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3744,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3794,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>3870900</v>
+      </c>
+      <c r="E76" s="3">
+        <v>4171300</v>
+      </c>
+      <c r="F76" s="3">
         <v>4108000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>4057600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>3698800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>3610900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>3893300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>3605200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>3875600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>3895200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>3768200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>3776000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>3530200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>3329700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>3398400</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3894,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>278800</v>
+      </c>
+      <c r="E81" s="3">
+        <v>255000</v>
+      </c>
+      <c r="F81" s="3">
         <v>298900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>292500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>261500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>239100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>267700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>270100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>216100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>201300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>218700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>222600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>178000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>172900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>191600</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,52 +4023,60 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>16500</v>
+      </c>
+      <c r="E83" s="3">
+        <v>17000</v>
+      </c>
+      <c r="F83" s="3">
         <v>15400</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>17600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>14900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>14500</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>14300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>14200</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>14000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>13800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>12300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>11600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>11200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>11000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>10500</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +4119,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +4169,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4219,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4269,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4319,64 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>191100</v>
+      </c>
+      <c r="E89" s="3">
+        <v>292700</v>
+      </c>
+      <c r="F89" s="3">
         <v>366300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>331400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>123400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>340500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>320100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>352400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>148900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>197700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>256800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>340300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>193000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>280700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>173100</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,52 +4393,60 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-11100</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-57300</v>
+      </c>
+      <c r="F91" s="3">
         <v>-23300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-12600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-8500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-12100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-15200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-21600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-13000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-15700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-27300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-21400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-19100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-32300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-49700</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4489,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,52 +4539,64 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>280000</v>
+      </c>
+      <c r="E94" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F94" s="3">
         <v>-272100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-102800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>46800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>118800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-272000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>350300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>75900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-48100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-328700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-148400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-6300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>10500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-269300</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4613,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4659,14 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4709,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4759,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,136 +4809,160 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-546000</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-223200</v>
+      </c>
+      <c r="F100" s="3">
         <v>-254000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>36700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-188000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-534000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>10400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-546500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-246000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-86900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-241700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>4600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>12900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-244800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-21300</v>
+      </c>
+      <c r="E101" s="3">
+        <v>9400</v>
+      </c>
+      <c r="F101" s="3">
         <v>-10800</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>4700</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>-1300</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>-1600</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>-4400</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>-7900</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>3900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>1500</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>4800</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>-800</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>-10300</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-96100</v>
+      </c>
+      <c r="E102" s="3">
+        <v>80300</v>
+      </c>
+      <c r="F102" s="3">
         <v>-170600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>269900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-19200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-76200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>54000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>148300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-17300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>63100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-312100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>201300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>198800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>36100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-93200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MNST_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MNST_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
   <si>
     <t>MNST</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,231 +665,244 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1093900</v>
+      </c>
+      <c r="E8" s="3">
         <v>1062100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1017200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1133600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1104000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>946000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>924200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1016200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1015900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>850900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>810400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>909500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>907100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>742100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>753800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>788000</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>450300</v>
+      </c>
+      <c r="E9" s="3">
         <v>442000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>422900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>476600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>458400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>387800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>386700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>422500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>410500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>349100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>319700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>351700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>336400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>274400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>267800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>297100</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>643600</v>
+      </c>
+      <c r="E10" s="3">
         <v>620100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>594300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>657000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>645600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>558200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>537500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>593700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>605400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>501800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>490700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>557800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>570700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>467700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>486000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>490900</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -908,8 +921,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -958,8 +972,11 @@
       <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,84 +1025,90 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E14" s="3">
         <v>3000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>300</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>300</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>10700</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>14100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>5500</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>7000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-500</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>15900</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>200</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>19900</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>46300</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E15" s="3">
         <v>100</v>
       </c>
       <c r="F15" s="3">
+        <v>100</v>
+      </c>
+      <c r="G15" s="3">
         <v>200</v>
-      </c>
-      <c r="G15" s="3">
-        <v>100</v>
       </c>
       <c r="H15" s="3">
         <v>100</v>
       </c>
-      <c r="I15" s="3" t="s">
-        <v>8</v>
+      <c r="I15" s="3">
+        <v>100</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K15" s="3">
-        <v>0</v>
+      <c r="K15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L15" s="3">
         <v>0</v>
@@ -1108,8 +1131,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,108 +1151,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>686600</v>
+      </c>
+      <c r="E17" s="3">
         <v>697100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>700200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>738100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>725100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>634500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>617700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>676600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>658300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>571000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>543200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>592100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>557000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>477900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>502000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>497600</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>407300</v>
+      </c>
+      <c r="E18" s="3">
         <v>365000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>317000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>395500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>378900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>311500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>306500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>339600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>357600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>279900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>267200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>317400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>350100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>264200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>251800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>290400</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,108 +1278,115 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E20" s="3">
         <v>900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>4200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>3100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>3000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>2700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>4400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>2900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>4000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-2600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-5000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>421000</v>
+      </c>
+      <c r="E21" s="3">
         <v>382400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>338200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>414000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>399600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>329100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>325400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>356800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>372300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>295700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>281600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>333700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>359100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>276100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>257700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>299900</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1365,14 +1405,14 @@
       <c r="H22" s="3">
         <v>0</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>8</v>
+      <c r="I22" s="3">
+        <v>0</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
+      <c r="K22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L22" s="3">
         <v>0</v>
@@ -1395,108 +1435,117 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>405500</v>
+      </c>
+      <c r="E23" s="3">
         <v>365900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>321200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>398600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>382000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>314200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>310900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>342600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>358100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>281700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>267800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>321400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>347500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>264900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>246700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>289300</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>94100</v>
+      </c>
+      <c r="E24" s="3">
         <v>87000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>66300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>99600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>89500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>52700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>70000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>74800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>88000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>65700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>24600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>102600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>124900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>86900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>73800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>97700</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>311400</v>
+      </c>
+      <c r="E26" s="3">
         <v>278800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>255000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>298900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>292500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>261500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>240900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>267700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>270100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>216100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>243200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>218700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>222600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>178000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>172900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>191600</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>311400</v>
+      </c>
+      <c r="E27" s="3">
         <v>278800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>255000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>298900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>292500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>261500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>240900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>267700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>270100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>216100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>243200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>218700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>222600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>178000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>172900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>191600</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1715,11 +1776,11 @@
       <c r="H29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I29" s="3">
+      <c r="I29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J29" s="3">
         <v>-1800</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
@@ -1727,11 +1788,11 @@
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N29" s="3">
         <v>-41900</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,108 +1912,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E32" s="3">
         <v>-900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-4200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-3100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-3000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-2700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-4400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-2900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-4000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>2600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>5000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>311400</v>
+      </c>
+      <c r="E33" s="3">
         <v>278800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>255000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>298900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>292500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>261500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>239100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>267700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>270100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>216100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>201300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>218700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>222600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>178000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>172900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>191600</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>311400</v>
+      </c>
+      <c r="E35" s="3">
         <v>278800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>255000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>298900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>292500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>261500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>239100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>267700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>270100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>216100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>201300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>218700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>222600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>178000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>172900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>191600</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,458 +2226,486 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>921300</v>
+      </c>
+      <c r="E41" s="3">
         <v>701800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>798000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>717600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>888200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>618300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>637500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>713700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>659700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>511400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>528600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>465600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>777700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>576300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>377600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>341500</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>250800</v>
+      </c>
+      <c r="E42" s="3">
         <v>233500</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>533100</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>587400</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>358000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>263700</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>320700</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>457900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>211100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>585200</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>672900</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>630300</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>323900</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>209400</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>220600</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>257700</v>
       </c>
     </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>760400</v>
+      </c>
+      <c r="E43" s="3">
         <v>670600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>540300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>648000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>688200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>596700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>484600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>620200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>592600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>525500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>449500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>535300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>537100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>572000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>573100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>592300</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>340500</v>
+      </c>
+      <c r="E44" s="3">
         <v>352300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>360700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>317700</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>299500</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>300800</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>277700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>262100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>275600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>268600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>255700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>213300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>190600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>171300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>162000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>167800</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>98400</v>
+      </c>
+      <c r="E45" s="3">
         <v>90500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>84200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>90100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>92800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>127800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>83700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>98800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>89800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>147900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>179600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>89700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>50900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>87800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>99100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>190700</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2371500</v>
+      </c>
+      <c r="E46" s="3">
         <v>2048700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2316300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2360800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2326800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1907300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1804200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2152700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1828700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2038500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2086400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1934300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1880100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1616800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1432300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1550000</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E47" s="3">
         <v>13900</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>12900</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>16300</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>8900</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>1900</v>
       </c>
-      <c r="I47" s="3">
-        <v>0</v>
-      </c>
       <c r="J47" s="3">
+        <v>0</v>
+      </c>
+      <c r="K47" s="3">
         <v>1600</v>
       </c>
-      <c r="K47" s="3">
-        <v>0</v>
-      </c>
       <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3">
         <v>3500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>2400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>7000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>48600</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>500</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>2400</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>9500</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>325700</v>
+      </c>
+      <c r="E48" s="3">
         <v>326200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>330000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>276600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>265500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>266800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>243100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>242900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>240700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>231200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>230300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>225400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>211600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>189600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>173300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>144600</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2387200</v>
+      </c>
+      <c r="E49" s="3">
         <v>2384800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>2383700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>2379100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>2377500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>2374500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>2377500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>2373900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2371000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2368300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2365700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2365100</v>
-      </c>
-      <c r="O49" s="3">
-        <v>2364500</v>
       </c>
       <c r="P49" s="3">
         <v>2364500</v>
       </c>
       <c r="Q49" s="3">
+        <v>2364500</v>
+      </c>
+      <c r="R49" s="3">
         <v>2364300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>2364500</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,58 +2807,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>107400</v>
+      </c>
+      <c r="E52" s="3">
         <v>107900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>107400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>104600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>105700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>105400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>102100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>100300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>101700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>98600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>106300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>177100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>179300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>178300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>181200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>167800</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,58 +2913,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>5193800</v>
+      </c>
+      <c r="E54" s="3">
         <v>4881500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>5150400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>5137400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>5084300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>4655900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>4526900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>4871400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4542100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>4740100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>4791000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>4708900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>4684100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>4349700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>4153500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>4236400</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,78 +3010,82 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>262000</v>
+      </c>
+      <c r="E57" s="3">
         <v>305500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>274000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>304800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>292600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>267700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>248800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>278900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>267100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>226100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>245900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>229600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>242700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>178100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>193300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>172200</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E58" s="3">
         <v>2200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1800</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>900</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>8</v>
@@ -2962,8 +3096,8 @@
       <c r="L58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
+      <c r="M58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N58" s="3">
         <v>0</v>
@@ -2980,108 +3114,117 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>411100</v>
+      </c>
+      <c r="E59" s="3">
         <v>393800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>385600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>407600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>411700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>362400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>352400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>377400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>347100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>308000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>314400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>368100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>318500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>291700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>277300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>300500</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>674900</v>
+      </c>
+      <c r="E60" s="3">
         <v>701500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>661100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>714200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>705500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>631000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>601100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>656400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>614200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>534000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>560400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>597700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>561200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>469800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>470600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>472600</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3130,58 +3273,64 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>297400</v>
+      </c>
+      <c r="E62" s="3">
         <v>309000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>318000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>315200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>321200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>326100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>314800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>321700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>322700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>330500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>335400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>343100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>346900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>349700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>353200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>365400</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,58 +3485,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>972300</v>
+      </c>
+      <c r="E66" s="3">
         <v>1010600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>979100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1029400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1026700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>957000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>916000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>978100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>936900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>864500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>895800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>940800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>908100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>819500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>823800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>838000</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,58 +3771,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>5612700</v>
+      </c>
+      <c r="E72" s="3">
         <v>5301300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>5022500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>4767500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>4468600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>4176100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>3914600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>3675500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>3407800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>3137700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>2928200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>2726900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>2508200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>2285500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>2107500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1934600</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,58 +3983,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>4221500</v>
+      </c>
+      <c r="E76" s="3">
         <v>3870900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>4171300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>4108000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>4057600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>3698800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>3610900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>3893300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3605200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3875600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>3895200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>3768200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>3776000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>3530200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>3329700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>3398400</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>311400</v>
+      </c>
+      <c r="E81" s="3">
         <v>278800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>255000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>298900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>292500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>261500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>239100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>267700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>270100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>216100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>201300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>218700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>222600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>178000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>172900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>191600</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,58 +4223,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>15500</v>
+      </c>
+      <c r="E83" s="3">
         <v>16500</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>17000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>15400</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>17600</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>14900</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>14500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>14300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>14200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>14000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>13800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>12300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>11600</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>11200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>11000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>10500</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,58 +4539,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>249300</v>
+      </c>
+      <c r="E89" s="3">
         <v>191100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>292700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>366300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>331400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>123400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>340500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>320100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>352400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>148900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>197700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>256800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>340300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>193000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>280700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>173100</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,58 +4615,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-18000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-11100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-57300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-23300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-12600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-8500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-12100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-15200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-21600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-13000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-15700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-27300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-21400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-19100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-32300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-49700</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,58 +4772,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-29300</v>
+      </c>
+      <c r="E94" s="3">
         <v>280000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>1500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-272100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-102800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>46800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>118800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-272000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>350300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>75900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-48100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-328700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-148400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-6300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>10500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-269300</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4665,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,154 +5058,166 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="E100" s="3">
         <v>-546000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-223200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-254000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>36700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-188000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-534000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>10400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-546500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-246000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-86900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-241700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>4600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>12900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-244800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>7100</v>
+      </c>
+      <c r="E101" s="3">
         <v>-21300</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>9400</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-10800</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>4700</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-1300</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-1600</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-4400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-7900</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>3900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>400</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>1500</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>4800</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-800</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-10300</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>219500</v>
+      </c>
+      <c r="E102" s="3">
         <v>-96100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>80300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-170600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>269900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-19200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-76200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>54000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>148300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-17300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>63100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-312100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>201300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>198800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>36100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-93200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MNST_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MNST_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="92">
   <si>
     <t>MNST</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,244 +665,257 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1246400</v>
+      </c>
+      <c r="E8" s="3">
         <v>1093900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1062100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1017200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1133600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1104000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>946000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>924200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1016200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1015900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>850900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>810400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>909500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>907100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>742100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>753800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>788000</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>529000</v>
+      </c>
+      <c r="E9" s="3">
         <v>450300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>442000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>422900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>476600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>458400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>387800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>386700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>422500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>410500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>349100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>319700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>351700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>336400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>274400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>267800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>297100</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>717400</v>
+      </c>
+      <c r="E10" s="3">
         <v>643600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>620100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>594300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>657000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>645600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>558200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>537500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>593700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>605400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>501800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>490700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>557800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>570700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>467700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>486000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>490900</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -975,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,61 +1045,67 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E14" s="3">
         <v>1200</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>3000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>300</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>300</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>10700</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>14100</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>5500</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>7000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-500</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>15900</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>200</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>19900</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>46300</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1090,28 +1113,28 @@
         <v>200</v>
       </c>
       <c r="E15" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F15" s="3">
         <v>100</v>
       </c>
       <c r="G15" s="3">
+        <v>100</v>
+      </c>
+      <c r="H15" s="3">
         <v>200</v>
-      </c>
-      <c r="H15" s="3">
-        <v>100</v>
       </c>
       <c r="I15" s="3">
         <v>100</v>
       </c>
-      <c r="J15" s="3" t="s">
-        <v>8</v>
+      <c r="J15" s="3">
+        <v>100</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L15" s="3">
-        <v>0</v>
+      <c r="L15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M15" s="3">
         <v>0</v>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1178,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>787800</v>
+      </c>
+      <c r="E17" s="3">
         <v>686600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>697100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>700200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>738100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>725100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>634500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>617700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>676600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>658300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>571000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>543200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>592100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>557000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>477900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>502000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>497600</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>458600</v>
+      </c>
+      <c r="E18" s="3">
         <v>407300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>365000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>317000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>395500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>378900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>311500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>306500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>339600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>357600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>279900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>267200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>317400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>350100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>264200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>251800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>290400</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,114 +1312,121 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="E20" s="3">
         <v>-1800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>4200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>3100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>3000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>2700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>4400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>2900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>4000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-2600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-5000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>467900</v>
+      </c>
+      <c r="E21" s="3">
         <v>421000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>382400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>338200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>414000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>399600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>329100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>325400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>356800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>372300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>295700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>281600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>333700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>359100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>276100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>257700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>299900</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1408,14 +1448,14 @@
       <c r="I22" s="3">
         <v>0</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>8</v>
+      <c r="J22" s="3">
+        <v>0</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
+      <c r="L22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M22" s="3">
         <v>0</v>
@@ -1438,114 +1478,123 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>454000</v>
+      </c>
+      <c r="E23" s="3">
         <v>405500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>365900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>321200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>398600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>382000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>314200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>310900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>342600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>358100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>281700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>267800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>321400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>347500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>264900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>246700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>289300</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>106400</v>
+      </c>
+      <c r="E24" s="3">
         <v>94100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>87000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>66300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>99600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>89500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>52700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>70000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>74800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>88000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>65700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>24600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>102600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>124900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>86900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>73800</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>97700</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>347700</v>
+      </c>
+      <c r="E26" s="3">
         <v>311400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>278800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>255000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>298900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>292500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>261500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>240900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>267700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>270100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>216100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>243200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>218700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>222600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>178000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>172900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>191600</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>347700</v>
+      </c>
+      <c r="E27" s="3">
         <v>311400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>278800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>255000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>298900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>292500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>261500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>240900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>267700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>270100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>216100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>243200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>218700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>222600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>178000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>172900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>191600</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1779,11 +1840,11 @@
       <c r="I29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J29" s="3">
+      <c r="J29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K29" s="3">
         <v>-1800</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
@@ -1791,11 +1852,11 @@
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O29" s="3">
         <v>-41900</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,114 +1982,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E32" s="3">
         <v>1800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-4200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-3100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-3000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-2700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-4400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-2900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-4000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>2600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>5000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>347700</v>
+      </c>
+      <c r="E33" s="3">
         <v>311400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>278800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>255000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>298900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>292500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>261500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>239100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>267700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>270100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>216100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>201300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>218700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>222600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>178000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>172900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>191600</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>347700</v>
+      </c>
+      <c r="E35" s="3">
         <v>311400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>278800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>255000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>298900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>292500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>261500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>239100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>267700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>270100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>216100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>201300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>218700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>222600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>178000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>172900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>191600</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,485 +2313,513 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1074700</v>
+      </c>
+      <c r="E41" s="3">
         <v>921300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>701800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>798000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>717600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>888200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>618300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>637500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>713700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>659700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>511400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>528600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>465600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>777700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>576300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>377600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>341500</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>599300</v>
+      </c>
+      <c r="E42" s="3">
         <v>250800</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>233500</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>533100</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>587400</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>358000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>263700</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>320700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>457900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>211100</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>585200</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>672900</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>630300</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>323900</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>209400</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>220600</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>257700</v>
       </c>
     </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>740800</v>
+      </c>
+      <c r="E43" s="3">
         <v>760400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>670600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>540300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>648000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>688200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>596700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>484600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>620200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>592600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>525500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>449500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>535300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>537100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>572000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>573100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>592300</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>319000</v>
+      </c>
+      <c r="E44" s="3">
         <v>340500</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>352300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>360700</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>317700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>299500</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>300800</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>277700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>262100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>275600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>268600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>255700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>213300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>190600</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>171300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>162000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>167800</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>92000</v>
+      </c>
+      <c r="E45" s="3">
         <v>98400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>90500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>84200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>90100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>92800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>127800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>83700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>98800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>89800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>147900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>179600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>89700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>50900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>87800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>99100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>190700</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2825800</v>
+      </c>
+      <c r="E46" s="3">
         <v>2371500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2048700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2316300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2360800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2326800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1907300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1804200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2152700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1828700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2038500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2086400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1934300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1880100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1616800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1432300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1550000</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>20600</v>
+      </c>
+      <c r="E47" s="3">
         <v>2100</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>13900</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>12900</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>16300</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>8900</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>1900</v>
       </c>
-      <c r="J47" s="3">
-        <v>0</v>
-      </c>
       <c r="K47" s="3">
+        <v>0</v>
+      </c>
+      <c r="L47" s="3">
         <v>1600</v>
       </c>
-      <c r="L47" s="3">
-        <v>0</v>
-      </c>
       <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3">
         <v>3500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>2400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>7000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>48600</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>500</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>2400</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>9500</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>327700</v>
+      </c>
+      <c r="E48" s="3">
         <v>325700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>326200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>330000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>276600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>265500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>266800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>243100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>242900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>240700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>231200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>230300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>225400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>211600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>189600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>173300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>144600</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2391200</v>
+      </c>
+      <c r="E49" s="3">
         <v>2387200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>2384800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>2383700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>2379100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>2377500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>2374500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>2377500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2373900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2371000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2368300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2365700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2365100</v>
-      </c>
-      <c r="P49" s="3">
-        <v>2364500</v>
       </c>
       <c r="Q49" s="3">
         <v>2364500</v>
       </c>
       <c r="R49" s="3">
+        <v>2364500</v>
+      </c>
+      <c r="S49" s="3">
         <v>2364300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>2364500</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,61 +2927,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>132400</v>
+      </c>
+      <c r="E52" s="3">
         <v>107400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>107900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>107400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>104600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>105700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>105400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>102100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>100300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>101700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>98600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>106300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>177100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>179300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>178300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>181200</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>167800</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3039,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>5697700</v>
+      </c>
+      <c r="E54" s="3">
         <v>5193800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>4881500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>5150400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>5137400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>5084300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>4655900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>4526900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4871400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>4542100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>4740100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>4791000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>4708900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>4684100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>4349700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>4153500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>4236400</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,84 +3141,88 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>281500</v>
+      </c>
+      <c r="E57" s="3">
         <v>262000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>305500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>274000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>304800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>292600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>267700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>248800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>278900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>267100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>226100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>245900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>229600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>242700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>178100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>193300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>172200</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E58" s="3">
         <v>1800</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>2200</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1800</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1200</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>900</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>8</v>
@@ -3099,8 +3233,8 @@
       <c r="M58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N58" s="3">
-        <v>0</v>
+      <c r="N58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O58" s="3">
         <v>0</v>
@@ -3117,114 +3251,123 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>491000</v>
+      </c>
+      <c r="E59" s="3">
         <v>411100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>393800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>385600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>407600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>411700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>362400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>352400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>377400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>347100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>308000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>314400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>368100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>318500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>291700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>277300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>300500</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>773800</v>
+      </c>
+      <c r="E60" s="3">
         <v>674900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>701500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>661100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>714200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>705500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>631000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>601100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>656400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>614200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>534000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>560400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>597700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>561200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>469800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>470600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>472600</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3276,61 +3419,67 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>294600</v>
+      </c>
+      <c r="E62" s="3">
         <v>297400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>309000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>318000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>315200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>321200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>326100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>314800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>321700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>322700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>330500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>335400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>343100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>346900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>349700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>353200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>365400</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1068400</v>
+      </c>
+      <c r="E66" s="3">
         <v>972300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1010600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>979100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1029400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1026700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>957000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>916000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>978100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>936900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>864500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>895800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>940800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>908100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>819500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>823800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>838000</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>5960300</v>
+      </c>
+      <c r="E72" s="3">
         <v>5612700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>5301300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>5022500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>4767500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>4468600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>4176100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>3914600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>3675500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>3407800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>3137700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>2928200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>2726900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>2508200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>2285500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>2107500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1934600</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>4629300</v>
+      </c>
+      <c r="E76" s="3">
         <v>4221500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>3870900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>4171300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>4108000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>4057600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>3698800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>3610900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3893300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3605200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>3875600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>3895200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>3768200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>3776000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>3530200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>3329700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>3398400</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>347700</v>
+      </c>
+      <c r="E81" s="3">
         <v>311400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>278800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>255000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>298900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>292500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>261500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>239100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>267700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>270100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>216100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>201300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>218700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>222600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>178000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>172900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>191600</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,61 +4422,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>13800</v>
+      </c>
+      <c r="E83" s="3">
         <v>15500</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>16500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>17000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>15400</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>17600</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>14900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>14500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>14300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>14200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>14000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>13800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>12300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>11600</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>11200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>11000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>10500</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>508800</v>
+      </c>
+      <c r="E89" s="3">
         <v>249300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>191100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>292700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>366300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>331400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>123400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>340500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>320100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>352400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>148900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>197700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>256800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>340300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>193000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>280700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>173100</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,61 +4836,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-12900</v>
+      </c>
+      <c r="E91" s="3">
         <v>-18000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-11100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-57300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-23300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-12600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-8500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-12100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-15200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-21600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-13000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-15700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-27300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-21400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-19100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-32300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-49700</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,61 +5002,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-391200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-29300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>280000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>1500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-272100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-102800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>46800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>118800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-272000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>350300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>75900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-48100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-328700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-148400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-6300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>10500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-269300</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,163 +5304,175 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>20700</v>
+      </c>
+      <c r="E100" s="3">
         <v>-7600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-546000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-223200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-254000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>36700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-188000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-534000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>10400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-546500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-246000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-86900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-241700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>4600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>12900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-244800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>15100</v>
+      </c>
+      <c r="E101" s="3">
         <v>7100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-21300</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>9400</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-10800</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>4700</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-1300</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-1600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-4400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-7900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>3900</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>400</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>1500</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>4800</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-800</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-10300</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>153400</v>
+      </c>
+      <c r="E102" s="3">
         <v>219500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-96100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>80300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-170600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>269900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-19200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-76200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>54000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>148300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-17300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>63100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-312100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>201300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>198800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>36100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-93200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MNST_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MNST_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="92">
   <si>
     <t>MNST</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,257 +665,282 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1243800</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1196300</v>
+      </c>
+      <c r="F8" s="3">
         <v>1246400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>1093900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>1062100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>1017200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>1133600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>1104000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>946000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>924200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>1016200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>1015900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>850900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>810400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>909500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>907100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>742100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>753800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>788000</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>528900</v>
+      </c>
+      <c r="E9" s="3">
+        <v>522800</v>
+      </c>
+      <c r="F9" s="3">
         <v>529000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>450300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>442000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>422900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>476600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>458400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>387800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>386700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>422500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>410500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>349100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>319700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>351700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>336400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>274400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>267800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>297100</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>714900</v>
+      </c>
+      <c r="E10" s="3">
+        <v>673500</v>
+      </c>
+      <c r="F10" s="3">
         <v>717400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>643600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>620100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>594300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>657000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>645600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>558200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>537500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>593700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>605400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>501800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>490700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>557800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>570700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>467700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>486000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>490900</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -936,8 +961,10 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -992,8 +1019,14 @@
       <c r="T12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,100 +1081,112 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>3000</v>
+      <c r="D14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E14" s="3">
-        <v>1200</v>
+        <v>1700</v>
       </c>
       <c r="F14" s="3">
         <v>3000</v>
       </c>
       <c r="G14" s="3">
-        <v>300</v>
+        <v>1200</v>
       </c>
       <c r="H14" s="3">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="I14" s="3">
         <v>300</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
+        <v>300</v>
+      </c>
+      <c r="L14" s="3">
         <v>10700</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>14100</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>5500</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>7000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>-500</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>15900</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="S14" s="3">
         <v>200</v>
       </c>
-      <c r="R14" s="3">
+      <c r="T14" s="3">
         <v>19900</v>
       </c>
-      <c r="S14" s="3">
+      <c r="U14" s="3">
         <v>46300</v>
       </c>
-      <c r="T14" s="3">
+      <c r="V14" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>100</v>
+      </c>
+      <c r="E15" s="3">
+        <v>100</v>
+      </c>
+      <c r="F15" s="3">
         <v>200</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
         <v>200</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>100</v>
-      </c>
-      <c r="G15" s="3">
-        <v>100</v>
-      </c>
-      <c r="H15" s="3">
-        <v>200</v>
       </c>
       <c r="I15" s="3">
         <v>100</v>
       </c>
       <c r="J15" s="3">
+        <v>200</v>
+      </c>
+      <c r="K15" s="3">
         <v>100</v>
       </c>
-      <c r="K15" s="3" t="s">
+      <c r="L15" s="3">
+        <v>100</v>
+      </c>
+      <c r="M15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L15" s="3" t="s">
+      <c r="N15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M15" s="3">
-        <v>0</v>
-      </c>
-      <c r="N15" s="3">
-        <v>0</v>
-      </c>
       <c r="O15" s="3">
         <v>0</v>
       </c>
@@ -1160,8 +1205,14 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1230,134 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>829700</v>
+      </c>
+      <c r="E17" s="3">
+        <v>794000</v>
+      </c>
+      <c r="F17" s="3">
         <v>787800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>686600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>697100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>700200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>738100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>725100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>634500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>617700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>676600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>658300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>571000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>543200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>592100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>557000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>477900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>502000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>497600</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>414100</v>
+      </c>
+      <c r="E18" s="3">
+        <v>402300</v>
+      </c>
+      <c r="F18" s="3">
         <v>458600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>407300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>365000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>317000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>395500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>378900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>311500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>306500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>339600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>357600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>279900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>267200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>317400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>350100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>264200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>251800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>290400</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,120 +1378,134 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="F20" s="3">
         <v>-4600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-1800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>4200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>3100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>3000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>2700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>4400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>2900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>1800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>4000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-2600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>-5000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>427200</v>
+      </c>
+      <c r="E21" s="3">
+        <v>415900</v>
+      </c>
+      <c r="F21" s="3">
         <v>467900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>421000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>382400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>338200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>414000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>399600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>329100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>325400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>356800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>372300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>295700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>281600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>333700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>359100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>276100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>257700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>299900</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1451,18 +1530,18 @@
       <c r="J22" s="3">
         <v>0</v>
       </c>
-      <c r="K22" s="3" t="s">
+      <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L22" s="3" t="s">
+      <c r="N22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
-      </c>
-      <c r="N22" s="3">
-        <v>0</v>
-      </c>
       <c r="O22" s="3">
         <v>0</v>
       </c>
@@ -1481,120 +1560,138 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>413400</v>
+      </c>
+      <c r="E23" s="3">
+        <v>400800</v>
+      </c>
+      <c r="F23" s="3">
         <v>454000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>405500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>365900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>321200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>398600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>382000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>314200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>310900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>342600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>358100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>281700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>267800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>321400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>347500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>264900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>246700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>289300</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>98200</v>
+      </c>
+      <c r="E24" s="3">
+        <v>-70900</v>
+      </c>
+      <c r="F24" s="3">
         <v>106400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>94100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>87000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>66300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>99600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>89500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>52700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>70000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>74800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>88000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>65700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>24600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>102600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>124900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>86900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>73800</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>97700</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1746,138 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>315200</v>
+      </c>
+      <c r="E26" s="3">
+        <v>471700</v>
+      </c>
+      <c r="F26" s="3">
         <v>347700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>311400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>278800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>255000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>298900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>292500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>261500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>240900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>267700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>270100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>216100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>243200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>218700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>222600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>178000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>172900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>191600</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>315200</v>
+      </c>
+      <c r="E27" s="3">
+        <v>471700</v>
+      </c>
+      <c r="F27" s="3">
         <v>347700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>311400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>278800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>255000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>298900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>292500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>261500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>240900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>267700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>270100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>216100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>243200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>218700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>222600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>178000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>172900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>191600</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1932,14 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1843,26 +1964,26 @@
       <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3">
-        <v>-1800</v>
+      <c r="K29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
+      <c r="M29" s="3">
+        <v>-1800</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3">
-        <v>-41900</v>
+      <c r="O29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>8</v>
+      <c r="Q29" s="3">
+        <v>-41900</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>8</v>
@@ -1873,8 +1994,14 @@
       <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +2056,14 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,120 +2118,138 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>700</v>
+      </c>
+      <c r="E32" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F32" s="3">
         <v>4600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>1800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-4200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-3100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-3000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-2700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-4400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-2900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-1800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-4000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>2600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>5000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>315200</v>
+      </c>
+      <c r="E33" s="3">
+        <v>471700</v>
+      </c>
+      <c r="F33" s="3">
         <v>347700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>311400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>278800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>255000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>298900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>292500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>261500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>239100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>267700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>270100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>216100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>201300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>218700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>222600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>178000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>172900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>191600</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2304,143 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>315200</v>
+      </c>
+      <c r="E35" s="3">
+        <v>471700</v>
+      </c>
+      <c r="F35" s="3">
         <v>347700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>311400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>278800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>255000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>298900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>292500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>261500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>239100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>267700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>270100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>216100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>201300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>218700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>222600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>178000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>172900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>191600</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2461,10 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,512 +2485,568 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1178900</v>
+      </c>
+      <c r="E41" s="3">
+        <v>1180400</v>
+      </c>
+      <c r="F41" s="3">
         <v>1074700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>921300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>701800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>798000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>717600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>888200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>618300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>637500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>713700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>659700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>511400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>528600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>465600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>777700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>576300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>377600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>341500</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>980100</v>
+      </c>
+      <c r="E42" s="3">
+        <v>881400</v>
+      </c>
+      <c r="F42" s="3">
         <v>599300</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>250800</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>233500</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>533100</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>587400</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>358000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>263700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>320700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>457900</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>211100</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>585200</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>672900</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>630300</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>323900</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>209400</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>220600</v>
       </c>
-      <c r="T42" s="3">
+      <c r="V42" s="3">
         <v>257700</v>
       </c>
     </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>802500</v>
+      </c>
+      <c r="E43" s="3">
+        <v>666000</v>
+      </c>
+      <c r="F43" s="3">
         <v>740800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>760400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>670600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>540300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>648000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>688200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>596700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>484600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>620200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>592600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>525500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>449500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>535300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>537100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>572000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>573100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>592300</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>368400</v>
+      </c>
+      <c r="E44" s="3">
+        <v>333100</v>
+      </c>
+      <c r="F44" s="3">
         <v>319000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>340500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>352300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>360700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>317700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>299500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>300800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>277700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>262100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>275600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>268600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>255700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>213300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>190600</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>171300</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>162000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>167800</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>104000</v>
+      </c>
+      <c r="E45" s="3">
+        <v>80100</v>
+      </c>
+      <c r="F45" s="3">
         <v>92000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>98400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>90500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>84200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>90100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>92800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>127800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>83700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>98800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>89800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>147900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>179600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>89700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>50900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>87800</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>99100</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>190700</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3433900</v>
+      </c>
+      <c r="E46" s="3">
+        <v>3141000</v>
+      </c>
+      <c r="F46" s="3">
         <v>2825800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>2371500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>2048700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>2316300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>2360800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>2326800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>1907300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>1804200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>2152700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>1828700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>2038500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>2086400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>1934300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>1880100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>1616800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>1432300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>1550000</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>65300</v>
+      </c>
+      <c r="E47" s="3">
+        <v>44300</v>
+      </c>
+      <c r="F47" s="3">
         <v>20600</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>2100</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>13900</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>12900</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>16300</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>8900</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>1900</v>
       </c>
-      <c r="K47" s="3">
-        <v>0</v>
-      </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3">
         <v>1600</v>
       </c>
-      <c r="M47" s="3">
-        <v>0</v>
-      </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+      <c r="P47" s="3">
         <v>3500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>2400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>7000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>48600</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>500</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>2400</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>9500</v>
       </c>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>334000</v>
+      </c>
+      <c r="E48" s="3">
+        <v>337400</v>
+      </c>
+      <c r="F48" s="3">
         <v>327700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>325700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>326200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>330000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>276600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>265500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>266800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>243100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>242900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>240700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>231200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>230300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>225400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>211600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>189600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>173300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>144600</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2394700</v>
+      </c>
+      <c r="E49" s="3">
+        <v>2390700</v>
+      </c>
+      <c r="F49" s="3">
         <v>2391200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>2387200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>2384800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>2383700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>2379100</v>
-      </c>
-      <c r="I49" s="3">
-        <v>2377500</v>
-      </c>
-      <c r="J49" s="3">
-        <v>2374500</v>
       </c>
       <c r="K49" s="3">
         <v>2377500</v>
       </c>
       <c r="L49" s="3">
+        <v>2374500</v>
+      </c>
+      <c r="M49" s="3">
+        <v>2377500</v>
+      </c>
+      <c r="N49" s="3">
         <v>2373900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>2371000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>2368300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>2365700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>2365100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>2364500</v>
-      </c>
-      <c r="R49" s="3">
-        <v>2364500</v>
-      </c>
-      <c r="S49" s="3">
-        <v>2364300</v>
       </c>
       <c r="T49" s="3">
         <v>2364500</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>2364300</v>
+      </c>
+      <c r="V49" s="3">
+        <v>2364500</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +3101,14 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,64 +3163,76 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>306600</v>
+      </c>
+      <c r="E52" s="3">
+        <v>289400</v>
+      </c>
+      <c r="F52" s="3">
         <v>132400</v>
-      </c>
-      <c r="E52" s="3">
-        <v>107400</v>
-      </c>
-      <c r="F52" s="3">
-        <v>107900</v>
       </c>
       <c r="G52" s="3">
         <v>107400</v>
       </c>
       <c r="H52" s="3">
+        <v>107900</v>
+      </c>
+      <c r="I52" s="3">
+        <v>107400</v>
+      </c>
+      <c r="J52" s="3">
         <v>104600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>105700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>105400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>102100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>100300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>101700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>98600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>106300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>177100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>179300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>178300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>181200</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>167800</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3287,76 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6534400</v>
+      </c>
+      <c r="E54" s="3">
+        <v>6202700</v>
+      </c>
+      <c r="F54" s="3">
         <v>5697700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>5193800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>4881500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>5150400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>5137400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>5084300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>4655900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>4526900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>4871400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>4542100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>4740100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>4791000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>4708900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>4684100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>4349700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>4153500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>4236400</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3377,10 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,93 +3401,101 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>334100</v>
+      </c>
+      <c r="E57" s="3">
+        <v>296800</v>
+      </c>
+      <c r="F57" s="3">
         <v>281500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>262000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>305500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>274000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>304800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>292600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>267700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>248800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>278900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>267100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>226100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>245900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>229600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>242700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>178100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>193300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>172200</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E58" s="3">
+        <v>800</v>
+      </c>
+      <c r="F58" s="3">
         <v>1200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>1800</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>2200</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>1500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>1800</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>1200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>900</v>
-      </c>
-      <c r="K58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M58" s="3" t="s">
         <v>8</v>
@@ -3236,11 +3503,11 @@
       <c r="N58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O58" s="3">
-        <v>0</v>
-      </c>
-      <c r="P58" s="3">
-        <v>0</v>
+      <c r="O58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q58" s="3">
         <v>0</v>
@@ -3254,120 +3521,138 @@
       <c r="T58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>453200</v>
+      </c>
+      <c r="E59" s="3">
+        <v>452400</v>
+      </c>
+      <c r="F59" s="3">
         <v>491000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>411100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>393800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>385600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>407600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>411700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>362400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>352400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>377400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>347100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>308000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>314400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>368100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>318500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>291700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>277300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>300500</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>788900</v>
+      </c>
+      <c r="E60" s="3">
+        <v>750000</v>
+      </c>
+      <c r="F60" s="3">
         <v>773800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>674900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>701500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>661100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>714200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>705500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>631000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>601100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>656400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>614200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>534000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>560400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>597700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>561200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>469800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>470600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>472600</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3422,64 +3707,76 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>286000</v>
+      </c>
+      <c r="E62" s="3">
+        <v>291800</v>
+      </c>
+      <c r="F62" s="3">
         <v>294600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>297400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>309000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>318000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>315200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>321200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>326100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>314800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>321700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>322700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>330500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>335400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>343100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>346900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>349700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>353200</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>365400</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3831,14 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3893,14 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3955,76 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1074900</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1041900</v>
+      </c>
+      <c r="F66" s="3">
         <v>1068400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>972300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>1010600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>979100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>1029400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>1026700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>957000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>916000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>978100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>936900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>864500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>895800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>940800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>908100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>819500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>823800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>838000</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +4045,10 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +4103,14 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4165,14 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4227,14 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4289,76 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>6747300</v>
+      </c>
+      <c r="E72" s="3">
+        <v>6432100</v>
+      </c>
+      <c r="F72" s="3">
         <v>5960300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>5612700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>5301300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>5022500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>4767500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>4468600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>4176100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>3914600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>3675500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>3407800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>3137700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>2928200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>2726900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>2508200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>2285500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>2107500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>1934600</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4413,14 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4475,14 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4537,76 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>5459400</v>
+      </c>
+      <c r="E76" s="3">
+        <v>5160900</v>
+      </c>
+      <c r="F76" s="3">
         <v>4629300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>4221500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>3870900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>4171300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>4108000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>4057600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>3698800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>3610900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>3893300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>3605200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>3875600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>3895200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>3768200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>3776000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>3530200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>3329700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>3398400</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4661,143 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>315200</v>
+      </c>
+      <c r="E81" s="3">
+        <v>471700</v>
+      </c>
+      <c r="F81" s="3">
         <v>347700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>311400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>278800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>255000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>298900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>292500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>261500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>239100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>267700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>270100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>216100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>201300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>218700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>222600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>178000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>172900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>191600</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +4818,10 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4432,55 +4829,61 @@
         <v>13800</v>
       </c>
       <c r="E83" s="3">
+        <v>15100</v>
+      </c>
+      <c r="F83" s="3">
+        <v>13800</v>
+      </c>
+      <c r="G83" s="3">
         <v>15500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>16500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>17000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>15400</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>17600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>14900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>14500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>14300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>14200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>14000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>13800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>12300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>11600</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>11200</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>11000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>10500</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4938,14 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +5000,14 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +5062,14 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +5124,14 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +5186,76 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>175500</v>
+      </c>
+      <c r="E89" s="3">
+        <v>414900</v>
+      </c>
+      <c r="F89" s="3">
         <v>508800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>249300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>191100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>292700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>366300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>331400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>123400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>340500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>320100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>352400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>148900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>197700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>256800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>340300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>193000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>280700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>173100</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,64 +5276,72 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="F91" s="3">
         <v>-12900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-18000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-11100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-57300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-23300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-12600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-8500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-12100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-15200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-21600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-13000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-15700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-27300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-21400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-19100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-32300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-49700</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5396,14 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,64 +5458,76 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-149100</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-332000</v>
+      </c>
+      <c r="F94" s="3">
         <v>-391200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-29300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>280000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>1500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-272100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-102800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>46800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>118800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-272000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>350300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>75900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-48100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-328700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-148400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-6300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>10500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-269300</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5548,10 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5606,14 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5668,14 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5730,14 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,172 +5792,196 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="E100" s="3">
+        <v>6800</v>
+      </c>
+      <c r="F100" s="3">
         <v>20700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-7600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-546000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-223200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-254000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>36700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-188000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-534000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>10400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-546500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-246000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-86900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-241700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>4600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>12900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-244800</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-22200</v>
+      </c>
+      <c r="E101" s="3">
+        <v>15900</v>
+      </c>
+      <c r="F101" s="3">
         <v>15100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>7100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>-21300</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>9400</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>-10800</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>4700</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>-1300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-1600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>-4400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>-7900</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>3900</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>400</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>1500</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>4800</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>-800</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>-10300</v>
       </c>
-      <c r="T101" s="3">
+      <c r="V101" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E102" s="3">
+        <v>105700</v>
+      </c>
+      <c r="F102" s="3">
         <v>153400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>219500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-96100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>80300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-170600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>269900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-19200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-76200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>54000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>148300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-17300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>63100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-312100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>201300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>198800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>36100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>-93200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MNST_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MNST_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="92">
   <si>
     <t>MNST</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,282 +665,295 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1461900</v>
+      </c>
+      <c r="E8" s="3">
         <v>1243800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1196300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1246400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1093900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1062100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1017200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1133600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1104000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>946000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>924200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1016200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1015900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>850900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>810400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>909500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>907100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>742100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>753800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>788000</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>625100</v>
+      </c>
+      <c r="E9" s="3">
         <v>528900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>522800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>529000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>450300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>442000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>422900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>476600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>458400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>387800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>386700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>422500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>410500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>349100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>319700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>351700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>336400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>274400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>267800</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>297100</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>836800</v>
+      </c>
+      <c r="E10" s="3">
         <v>714900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>673500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>717400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>643600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>620100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>594300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>657000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>645600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>558200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>537500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>593700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>605400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>501800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>490700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>557800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>570700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>467700</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>486000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>490900</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -963,8 +976,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1025,8 +1039,11 @@
       <c r="V12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,70 +1104,76 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="3">
         <v>1700</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>3000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>1200</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>3000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>300</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>300</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>10700</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>14100</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>5500</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>7000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>-500</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>15900</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>200</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>19900</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>46300</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1161,34 +1184,34 @@
         <v>100</v>
       </c>
       <c r="F15" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G15" s="3">
         <v>200</v>
       </c>
       <c r="H15" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I15" s="3">
         <v>100</v>
       </c>
       <c r="J15" s="3">
+        <v>100</v>
+      </c>
+      <c r="K15" s="3">
         <v>200</v>
-      </c>
-      <c r="K15" s="3">
-        <v>100</v>
       </c>
       <c r="L15" s="3">
         <v>100</v>
       </c>
-      <c r="M15" s="3" t="s">
-        <v>8</v>
+      <c r="M15" s="3">
+        <v>100</v>
       </c>
       <c r="N15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O15" s="3">
-        <v>0</v>
+      <c r="O15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P15" s="3">
         <v>0</v>
@@ -1211,8 +1234,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,132 +1258,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>936000</v>
+      </c>
+      <c r="E17" s="3">
         <v>829700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>794000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>787800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>686600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>697100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>700200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>738100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>725100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>634500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>617700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>676600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>658300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>571000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>543200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>592100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>557000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>477900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>502000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>497600</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>525900</v>
+      </c>
+      <c r="E18" s="3">
         <v>414100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>402300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>458600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>407300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>365000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>317000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>395500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>378900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>311500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>306500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>339600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>357600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>279900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>267200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>317400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>350100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>264200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>251800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>290400</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,132 +1413,139 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>900</v>
+      </c>
+      <c r="E20" s="3">
         <v>-700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-1500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-4600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-1800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>4200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>3100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>3000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>2700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>4400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>2900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>1800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>4000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-2600</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>700</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-5000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>540600</v>
+      </c>
+      <c r="E21" s="3">
         <v>427200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>415900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>467900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>421000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>382400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>338200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>414000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>399600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>329100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>325400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>356800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>372300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>295700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>281600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>333700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>359100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>276100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>257700</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>299900</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1536,14 +1576,14 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>8</v>
+      <c r="M22" s="3">
+        <v>0</v>
       </c>
       <c r="N22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
+      <c r="O22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P22" s="3">
         <v>0</v>
@@ -1566,132 +1606,141 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>526800</v>
+      </c>
+      <c r="E23" s="3">
         <v>413400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>400800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>454000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>405500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>365900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>321200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>398600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>382000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>314200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>310900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>342600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>358100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>281700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>267800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>321400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>347500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>264900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>246700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>289300</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>123100</v>
+      </c>
+      <c r="E24" s="3">
         <v>98200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-70900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>106400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>94100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>87000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>66300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>99600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>89500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>52700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>70000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>74800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>88000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>65700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>24600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>102600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>124900</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>86900</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>73800</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>97700</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,132 +1801,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>403800</v>
+      </c>
+      <c r="E26" s="3">
         <v>315200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>471700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>347700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>311400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>278800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>255000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>298900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>292500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>261500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>240900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>267700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>270100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>216100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>243200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>218700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>222600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>178000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>172900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>191600</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>403800</v>
+      </c>
+      <c r="E27" s="3">
         <v>315200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>471700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>347700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>311400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>278800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>255000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>298900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>292500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>261500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>240900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>267700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>270100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>216100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>243200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>218700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>222600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>178000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>172900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>191600</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1970,11 +2031,11 @@
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N29" s="3">
         <v>-1800</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
@@ -1982,11 +2043,11 @@
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="Q29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R29" s="3">
         <v>-41900</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>8</v>
@@ -2000,8 +2061,11 @@
       <c r="V29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,132 +2191,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E32" s="3">
         <v>700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>1500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>4600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>1800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-4200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-3100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-3000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-2700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-4400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-2900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-4000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>2600</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-700</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>5000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>403800</v>
+      </c>
+      <c r="E33" s="3">
         <v>315200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>471700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>347700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>311400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>278800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>255000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>298900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>292500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>261500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>239100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>267700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>270100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>216100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>201300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>218700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>222600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>178000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>172900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>191600</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,137 +2386,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>403800</v>
+      </c>
+      <c r="E35" s="3">
         <v>315200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>471700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>347700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>311400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>278800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>255000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>298900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>292500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>261500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>239100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>267700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>270100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>216100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>201300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>218700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>222600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>178000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>172900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>191600</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,566 +2573,594 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1584200</v>
+      </c>
+      <c r="E41" s="3">
         <v>1178900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1180400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1074700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>921300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>701800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>798000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>717600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>888200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>618300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>637500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>713700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>659700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>511400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>528600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>465600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>777700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>576300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>377600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>341500</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>969000</v>
+      </c>
+      <c r="E42" s="3">
         <v>980100</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>881400</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>599300</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>250800</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>233500</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>533100</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>587400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>358000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>263700</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>320700</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>457900</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>211100</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>585200</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>672900</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>630300</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>323900</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>209400</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>220600</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>257700</v>
       </c>
     </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>909200</v>
+      </c>
+      <c r="E43" s="3">
         <v>802500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>666000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>740800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>760400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>670600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>540300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>648000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>688200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>596700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>484600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>620200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>592600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>525500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>449500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>535300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>537100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>572000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>573100</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>592300</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>382900</v>
+      </c>
+      <c r="E44" s="3">
         <v>368400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>333100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>319000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>340500</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>352300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>360700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>317700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>299500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>300800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>277700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>262100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>275600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>268600</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>255700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>213300</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>190600</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>171300</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>162000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>167800</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>105400</v>
+      </c>
+      <c r="E45" s="3">
         <v>104000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>80100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>92000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>98400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>90500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>84200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>90100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>92800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>127800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>83700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>98800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>89800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>147900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>179600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>89700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>50900</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>87800</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>99100</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>190700</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3950700</v>
+      </c>
+      <c r="E46" s="3">
         <v>3433900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>3141000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2825800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2371500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2048700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2316300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2360800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2326800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1907300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1804200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2152700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1828700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2038500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2086400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1934300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1880100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1616800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1432300</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1550000</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>92400</v>
+      </c>
+      <c r="E47" s="3">
         <v>65300</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>44300</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>20600</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>2100</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>13900</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>12900</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>16300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>8900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1900</v>
       </c>
-      <c r="M47" s="3">
-        <v>0</v>
-      </c>
       <c r="N47" s="3">
+        <v>0</v>
+      </c>
+      <c r="O47" s="3">
         <v>1600</v>
       </c>
-      <c r="O47" s="3">
-        <v>0</v>
-      </c>
       <c r="P47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="3">
         <v>3500</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>2400</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>7000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>48600</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>500</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>2400</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>9500</v>
       </c>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>330200</v>
+      </c>
+      <c r="E48" s="3">
         <v>334000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>337400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>327700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>325700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>326200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>330000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>276600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>265500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>266800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>243100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>242900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>240700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>231200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>230300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>225400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>211600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>189600</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>173300</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>144600</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2390000</v>
+      </c>
+      <c r="E49" s="3">
         <v>2394700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>2390700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>2391200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>2387200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>2384800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>2383700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>2379100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2377500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2374500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2377500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2373900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2371000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2368300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>2365700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>2365100</v>
-      </c>
-      <c r="S49" s="3">
-        <v>2364500</v>
       </c>
       <c r="T49" s="3">
         <v>2364500</v>
       </c>
       <c r="U49" s="3">
+        <v>2364500</v>
+      </c>
+      <c r="V49" s="3">
         <v>2364300</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>2364500</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,70 +3286,76 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>308200</v>
+      </c>
+      <c r="E52" s="3">
         <v>306600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>289400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>132400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>107400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>107900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>107400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>104600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>105700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>105400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>102100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>100300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>101700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>98600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>106300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>177100</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>179300</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>178300</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>181200</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>167800</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,70 +3416,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>7071500</v>
+      </c>
+      <c r="E54" s="3">
         <v>6534400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>6202700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>5697700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>5193800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>4881500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>5150400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>5137400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5084300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>4655900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>4526900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>4871400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>4542100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>4740100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>4791000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>4708900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>4684100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>4349700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>4153500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>4236400</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,102 +3533,106 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>362900</v>
+      </c>
+      <c r="E57" s="3">
         <v>334100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>296800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>281500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>262000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>305500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>274000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>304800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>292600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>267700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>248800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>278900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>267100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>226100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>245900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>229600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>242700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>178100</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>193300</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>172200</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E58" s="3">
         <v>1600</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>800</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1200</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1800</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>2200</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>900</v>
-      </c>
-      <c r="M58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N58" s="3" t="s">
         <v>8</v>
@@ -3509,8 +3643,8 @@
       <c r="P58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q58" s="3">
-        <v>0</v>
+      <c r="Q58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R58" s="3">
         <v>0</v>
@@ -3527,132 +3661,141 @@
       <c r="V58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>522900</v>
+      </c>
+      <c r="E59" s="3">
         <v>453200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>452400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>491000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>411100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>393800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>385600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>407600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>411700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>362400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>352400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>377400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>347100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>308000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>314400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>368100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>318500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>291700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>277300</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>300500</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>887500</v>
+      </c>
+      <c r="E60" s="3">
         <v>788900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>750000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>773800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>674900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>701500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>661100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>714200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>705500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>631000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>601100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>656400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>614200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>534000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>560400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>597700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>561200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>469800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>470600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>472600</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3713,70 +3856,76 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>278500</v>
+      </c>
+      <c r="E62" s="3">
         <v>286000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>291800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>294600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>297400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>309000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>318000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>315200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>321200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>326100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>314800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>321700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>322700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>330500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>335400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>343100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>346900</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>349700</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>353200</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>365400</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,70 +4116,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1166000</v>
+      </c>
+      <c r="E66" s="3">
         <v>1074900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1041900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1068400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>972300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1010600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>979100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1029400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1026700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>957000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>916000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>978100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>936900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>864500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>895800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>940800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>908100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>819500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>823800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>838000</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,70 +4466,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>7151000</v>
+      </c>
+      <c r="E72" s="3">
         <v>6747300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>6432100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>5960300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>5612700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>5301300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>5022500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>4767500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>4468600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>4176100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>3914600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>3675500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>3407800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>3137700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>2928200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>2726900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>2508200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>2285500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>2107500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>1934600</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,70 +4726,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>5905500</v>
+      </c>
+      <c r="E76" s="3">
         <v>5459400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>5160900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>4629300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>4221500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>3870900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>4171300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>4108000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>4057600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3698800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>3610900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>3893300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>3605200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>3875600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>3895200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>3768200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>3776000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>3530200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>3329700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>3398400</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,137 +4856,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>403800</v>
+      </c>
+      <c r="E81" s="3">
         <v>315200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>471700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>347700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>311400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>278800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>255000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>298900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>292500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>261500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>239100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>267700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>270100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>216100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>201300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>218700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>222600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>178000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>172900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>191600</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,70 +5018,74 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>13700</v>
+      </c>
+      <c r="E83" s="3">
         <v>13800</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>15100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>13800</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>15500</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>16500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>17000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>15400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>17600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>14900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>14500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>14300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>14200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>14000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>13800</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>12300</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>11600</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>11200</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>11000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>10500</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,70 +5406,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>411100</v>
+      </c>
+      <c r="E89" s="3">
         <v>175500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>414900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>508800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>249300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>191100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>292700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>366300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>331400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>123400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>340500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>320100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>352400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>148900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>197700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>256800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>340300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>193000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>280700</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>173100</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,70 +5498,74 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-8400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-6700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-12900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-18000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-11100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-57300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-23300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-12600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-8500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-12100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-15200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-21600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-13000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-15700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-27300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-21400</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-19100</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-32300</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-49700</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,70 +5691,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-31100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-149100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-332000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-391200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-29300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>280000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>1500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-272100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-102800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>46800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>118800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-272000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>350300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>75900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-48100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-328700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-148400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-6300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>10500</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-269300</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5612,8 +5846,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,190 +6041,202 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>20000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-5700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>6800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>20700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-7600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-546000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-223200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-254000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>36700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-188000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-534000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>10400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-546500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-246000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-86900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-241700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>4600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>12900</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-244800</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E101" s="3">
         <v>-22200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>15900</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>15100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>7100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-21300</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>9400</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-10800</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>4700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-1300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-1600</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-4400</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-7900</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>3900</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>400</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>1500</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>4800</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-800</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-10300</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>405400</v>
+      </c>
+      <c r="E102" s="3">
         <v>-1500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>105700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>153400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>219500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-96100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>80300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-170600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>269900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-19200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-76200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>54000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>148300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-17300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>63100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-312100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>201300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>198800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>36100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-93200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MNST_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MNST_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="92">
   <si>
     <t>MNST</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,295 +665,308 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1410600</v>
+      </c>
+      <c r="E8" s="3">
         <v>1461900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1243800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1196300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1246400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1093900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1062100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1017200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1133600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1104000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>946000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>924200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1016200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1015900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>850900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>810400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>909500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>907100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>742100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>753800</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>788000</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>621400</v>
+      </c>
+      <c r="E9" s="3">
         <v>625100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>528900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>522800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>529000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>450300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>442000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>422900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>476600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>458400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>387800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>386700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>422500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>410500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>349100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>319700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>351700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>336400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>274400</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>267800</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>297100</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>789200</v>
+      </c>
+      <c r="E10" s="3">
         <v>836800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>714900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>673500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>717400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>643600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>620100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>594300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>657000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>645600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>558200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>537500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>593700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>605400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>501800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>490700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>557800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>570700</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>467700</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>486000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>490900</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,8 +990,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1042,8 +1056,11 @@
       <c r="W12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,8 +1124,11 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1118,62 +1138,65 @@
       <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="3">
         <v>1700</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>3000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>1200</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>3000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>300</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>300</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>10700</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>14100</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>5500</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>7000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>-500</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>15900</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>200</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>19900</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>46300</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1187,34 +1210,34 @@
         <v>100</v>
       </c>
       <c r="G15" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H15" s="3">
         <v>200</v>
       </c>
       <c r="I15" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J15" s="3">
         <v>100</v>
       </c>
       <c r="K15" s="3">
+        <v>100</v>
+      </c>
+      <c r="L15" s="3">
         <v>200</v>
-      </c>
-      <c r="L15" s="3">
-        <v>100</v>
       </c>
       <c r="M15" s="3">
         <v>100</v>
       </c>
-      <c r="N15" s="3" t="s">
-        <v>8</v>
+      <c r="N15" s="3">
+        <v>100</v>
       </c>
       <c r="O15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P15" s="3">
-        <v>0</v>
+      <c r="P15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q15" s="3">
         <v>0</v>
@@ -1237,8 +1260,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,138 +1285,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>966100</v>
+      </c>
+      <c r="E17" s="3">
         <v>936000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>829700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>794000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>787800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>686600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>697100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>700200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>738100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>725100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>634500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>617700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>676600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>658300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>571000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>543200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>592100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>557000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>477900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>502000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>497600</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>444500</v>
+      </c>
+      <c r="E18" s="3">
         <v>525900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>414100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>402300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>458600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>407300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>365000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>317000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>395500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>378900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>311500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>306500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>339600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>357600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>279900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>267200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>317400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>350100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>264200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>251800</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>290400</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,138 +1447,145 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E20" s="3">
         <v>900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-1500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-4600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-1800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>4200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>3100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>3000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>2700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>4400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>2900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>1800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>4000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-2600</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>700</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-5000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>455400</v>
+      </c>
+      <c r="E21" s="3">
         <v>540600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>427200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>415900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>467900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>421000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>382400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>338200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>414000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>399600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>329100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>325400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>356800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>372300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>295700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>281600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>333700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>359100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>276100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>257700</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>299900</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1579,14 +1619,14 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>8</v>
+      <c r="N22" s="3">
+        <v>0</v>
       </c>
       <c r="O22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P22" s="3">
-        <v>0</v>
+      <c r="P22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q22" s="3">
         <v>0</v>
@@ -1609,138 +1649,147 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>442200</v>
+      </c>
+      <c r="E23" s="3">
         <v>526800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>413400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>400800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>454000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>405500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>365900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>321200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>398600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>382000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>314200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>310900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>342600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>358100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>281700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>267800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>321400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>347500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>264900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>246700</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>289300</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>105000</v>
+      </c>
+      <c r="E24" s="3">
         <v>123100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>98200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-70900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>106400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>94100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>87000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>66300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>99600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>89500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>52700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>70000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>74800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>88000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>65700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>24600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>102600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>124900</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>86900</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>73800</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>97700</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,138 +1853,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>337200</v>
+      </c>
+      <c r="E26" s="3">
         <v>403800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>315200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>471700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>347700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>311400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>278800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>255000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>298900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>292500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>261500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>240900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>267700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>270100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>216100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>243200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>218700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>222600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>178000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>172900</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>191600</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>337200</v>
+      </c>
+      <c r="E27" s="3">
         <v>403800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>315200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>471700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>347700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>311400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>278800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>255000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>298900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>292500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>261500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>240900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>267700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>270100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>216100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>243200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>218700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>222600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>178000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>172900</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>191600</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2034,11 +2095,11 @@
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O29" s="3">
         <v>-1800</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
@@ -2046,11 +2107,11 @@
       <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R29" s="3">
+      <c r="R29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S29" s="3">
         <v>-41900</v>
-      </c>
-      <c r="S29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>8</v>
@@ -2064,8 +2125,11 @@
       <c r="W29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,138 +2261,147 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E32" s="3">
         <v>-900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>1500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>4600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>1800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-4200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-3100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-3000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-2700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-4400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-2900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-1800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-4000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>2600</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-700</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>5000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>337200</v>
+      </c>
+      <c r="E33" s="3">
         <v>403800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>315200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>471700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>347700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>311400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>278800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>255000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>298900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>292500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>261500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>239100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>267700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>270100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>216100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>201300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>218700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>222600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>178000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>172900</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>191600</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2465,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>337200</v>
+      </c>
+      <c r="E35" s="3">
         <v>403800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>315200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>471700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>347700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>311400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>278800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>255000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>298900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>292500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>261500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>239100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>267700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>270100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>216100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>201300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>218700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>222600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>178000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>172900</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>191600</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,593 +2660,621 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1712700</v>
+      </c>
+      <c r="E41" s="3">
         <v>1584200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1178900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1180400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1074700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>921300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>701800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>798000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>717600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>888200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>618300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>637500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>713700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>659700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>511400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>528600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>465600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>777700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>576300</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>377600</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>341500</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>1224100</v>
+      </c>
+      <c r="E42" s="3">
         <v>969000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>980100</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>881400</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>599300</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>250800</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>233500</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>533100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>587400</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>358000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>263700</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>320700</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>457900</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>211100</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>585200</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>672900</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>630300</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>323900</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>209400</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>220600</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>257700</v>
       </c>
     </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>849200</v>
+      </c>
+      <c r="E43" s="3">
         <v>909200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>802500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>666000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>740800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>760400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>670600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>540300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>648000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>688200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>596700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>484600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>620200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>592600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>525500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>449500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>535300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>537100</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>572000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>573100</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>592300</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>471600</v>
+      </c>
+      <c r="E44" s="3">
         <v>382900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>368400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>333100</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>319000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>340500</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>352300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>360700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>317700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>299500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>300800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>277700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>262100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>275600</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>268600</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>255700</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>213300</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>190600</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>171300</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>162000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>167800</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>126200</v>
+      </c>
+      <c r="E45" s="3">
         <v>105400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>104000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>80100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>92000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>98400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>90500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>84200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>90100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>92800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>127800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>83700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>98800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>89800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>147900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>179600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>89700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>50900</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>87800</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>99100</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>190700</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>4383700</v>
+      </c>
+      <c r="E46" s="3">
         <v>3950700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>3433900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3141000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2825800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2371500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2048700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2316300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2360800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2326800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1907300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1804200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2152700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1828700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2038500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>2086400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1934300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1880100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1616800</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1432300</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1550000</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>29700</v>
+      </c>
+      <c r="E47" s="3">
         <v>92400</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>65300</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>44300</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>20600</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>2100</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>13900</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>12900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>16300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>8900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1900</v>
       </c>
-      <c r="N47" s="3">
-        <v>0</v>
-      </c>
       <c r="O47" s="3">
+        <v>0</v>
+      </c>
+      <c r="P47" s="3">
         <v>1600</v>
       </c>
-      <c r="P47" s="3">
-        <v>0</v>
-      </c>
       <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3">
         <v>3500</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>2400</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>7000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>48600</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>500</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>2400</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>9500</v>
       </c>
     </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>329800</v>
+      </c>
+      <c r="E48" s="3">
         <v>330200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>334000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>337400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>327700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>325700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>326200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>330000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>276600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>265500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>266800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>243100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>242900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>240700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>231200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>230300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>225400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>211600</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>189600</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>173300</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>144600</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2397700</v>
+      </c>
+      <c r="E49" s="3">
         <v>2390000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>2394700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>2390700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>2391200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>2387200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>2384800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>2383700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2379100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2377500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2374500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2377500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2373900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2371000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>2368300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>2365700</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>2365100</v>
-      </c>
-      <c r="T49" s="3">
-        <v>2364500</v>
       </c>
       <c r="U49" s="3">
         <v>2364500</v>
       </c>
       <c r="V49" s="3">
+        <v>2364500</v>
+      </c>
+      <c r="W49" s="3">
         <v>2364300</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>2364500</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,73 +3406,79 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>308600</v>
+      </c>
+      <c r="E52" s="3">
         <v>308200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>306600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>289400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>132400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>107400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>107900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>107400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>104600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>105700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>105400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>102100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>100300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>101700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>98600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>106300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>177100</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>179300</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>178300</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>181200</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>167800</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,73 +3542,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>7449400</v>
+      </c>
+      <c r="E54" s="3">
         <v>7071500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>6534400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>6202700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>5697700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>5193800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>4881500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>5150400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5137400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>5084300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>4655900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>4526900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>4871400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>4542100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>4740100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>4791000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>4708900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>4684100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>4349700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>4153500</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>4236400</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,108 +3664,112 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>396200</v>
+      </c>
+      <c r="E57" s="3">
         <v>362900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>334100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>296800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>281500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>262000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>305500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>274000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>304800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>292600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>267700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>248800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>278900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>267100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>226100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>245900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>229600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>242700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>178100</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>193300</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>172200</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E58" s="3">
         <v>1700</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1600</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>800</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1800</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>2200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>900</v>
-      </c>
-      <c r="N58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O58" s="3" t="s">
         <v>8</v>
@@ -3646,8 +3780,8 @@
       <c r="Q58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R58" s="3">
-        <v>0</v>
+      <c r="R58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S58" s="3">
         <v>0</v>
@@ -3664,138 +3798,147 @@
       <c r="W58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>534400</v>
+      </c>
+      <c r="E59" s="3">
         <v>522900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>453200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>452400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>491000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>411100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>393800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>385600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>407600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>411700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>362400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>352400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>377400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>347100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>308000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>314400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>368100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>318500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>291700</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>277300</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>300500</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>932200</v>
+      </c>
+      <c r="E60" s="3">
         <v>887500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>788900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>750000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>773800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>674900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>701500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>661100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>714200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>705500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>631000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>601100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>656400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>614200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>534000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>560400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>597700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>561200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>469800</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>470600</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>472600</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3859,73 +4002,79 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>272100</v>
+      </c>
+      <c r="E62" s="3">
         <v>278500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>286000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>291800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>294600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>297400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>309000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>318000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>315200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>321200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>326100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>314800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>321700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>322700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>330500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>335400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>343100</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>346900</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>349700</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>353200</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>365400</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,73 +4274,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1204400</v>
+      </c>
+      <c r="E66" s="3">
         <v>1166000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1074900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1041900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1068400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>972300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1010600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>979100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1029400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1026700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>957000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>916000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>978100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>936900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>864500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>895800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>940800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>908100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>819500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>823800</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>838000</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,73 +4640,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>7488200</v>
+      </c>
+      <c r="E72" s="3">
         <v>7151000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>6747300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>6432100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>5960300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>5612700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>5301300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>5022500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>4767500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>4468600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>4176100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>3914600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>3675500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>3407800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>3137700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>2928200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>2726900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>2508200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>2285500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>2107500</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>1934600</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,73 +4912,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>6245000</v>
+      </c>
+      <c r="E76" s="3">
         <v>5905500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>5459400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>5160900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>4629300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>4221500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>3870900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>4171300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>4108000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>4057600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>3698800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>3610900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>3893300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>3605200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>3875600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>3895200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>3768200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>3776000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>3530200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>3329700</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>3398400</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5048,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>337200</v>
+      </c>
+      <c r="E81" s="3">
         <v>403800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>315200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>471700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>347700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>311400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>278800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>255000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>298900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>292500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>261500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>239100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>267700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>270100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>216100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>201300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>218700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>222600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>178000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>172900</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>191600</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,73 +5217,77 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>13200</v>
+      </c>
+      <c r="E83" s="3">
         <v>13700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>13800</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>15100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>13800</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>15500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>16500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>17000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>15400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>17600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>14900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>14500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>14300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>14200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>14000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>13800</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>12300</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>11600</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>11200</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>11000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>10500</v>
       </c>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,73 +5623,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>341400</v>
+      </c>
+      <c r="E89" s="3">
         <v>411100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>175500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>414900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>508800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>249300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>191100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>292700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>366300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>331400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>123400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>340500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>320100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>352400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>148900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>197700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>256800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>340300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>193000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>280700</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>173100</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,73 +5719,77 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-12600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-7100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-8400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-6700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-12900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-18000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-11100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-57300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-23300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-12600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-8500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-12100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-15200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-21600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-13000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-15700</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-27300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-21400</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-19100</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-32300</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-49700</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,73 +5921,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-201500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-31100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-149100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-332000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-391200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-29300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>280000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>1500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-272100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-102800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>46800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>118800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-272000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>350300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>75900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-48100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-328700</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-148400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-6300</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>10500</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-269300</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5849,8 +6083,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,199 +6287,211 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E100" s="3">
         <v>20000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-5700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>6800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>20700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-7600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-546000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-223200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-254000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>36700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-188000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-534000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>10400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-546500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-246000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-86900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-241700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>4600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>12900</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-244800</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-18700</v>
+      </c>
+      <c r="E101" s="3">
         <v>5300</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-22200</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>15900</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>15100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>7100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-21300</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>9400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-10800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>4700</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-1300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-1600</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-4400</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-7900</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>3900</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>400</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>1500</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>4800</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-800</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-10300</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>128400</v>
+      </c>
+      <c r="E102" s="3">
         <v>405400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-1500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>105700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>153400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>219500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-96100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>80300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-170600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>269900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-19200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-76200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>54000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>148300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-17300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>63100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-312100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>201300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>198800</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>36100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-93200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MNST_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MNST_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="92">
   <si>
     <t>MNST</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,308 +665,320 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1425000</v>
+      </c>
+      <c r="E8" s="3">
         <v>1410600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1461900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1243800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1196300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1246400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1093900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1062100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1017200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1133600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1104000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>946000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>924200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1016200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1015900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>850900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>810400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>909500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>907100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>742100</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>753800</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>788000</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>657500</v>
+      </c>
+      <c r="E9" s="3">
         <v>621400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>625100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>528900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>522800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>529000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>450300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>442000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>422900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>476600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>458400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>387800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>386700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>422500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>410500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>349100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>319700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>351700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>336400</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>274400</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>267800</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>297100</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>767500</v>
+      </c>
+      <c r="E10" s="3">
         <v>789200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>836800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>714900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>673500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>717400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>643600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>620100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>594300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>657000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>645600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>558200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>537500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>593700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>605400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>501800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>490700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>557800</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>570700</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>467700</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>486000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>490900</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -991,8 +1003,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1059,8 +1072,11 @@
       <c r="X12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,13 +1143,16 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>8</v>
+      <c r="D14" s="3">
+        <v>5300</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>8</v>
@@ -1141,67 +1160,70 @@
       <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="3">
         <v>1700</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>3000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>1200</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>3000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>300</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>300</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>10700</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>14100</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>5500</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>7000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>-500</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>15900</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>200</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>19900</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>46300</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E15" s="3">
         <v>100</v>
@@ -1213,34 +1235,34 @@
         <v>100</v>
       </c>
       <c r="H15" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I15" s="3">
         <v>200</v>
       </c>
       <c r="J15" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K15" s="3">
         <v>100</v>
       </c>
       <c r="L15" s="3">
+        <v>100</v>
+      </c>
+      <c r="M15" s="3">
         <v>200</v>
-      </c>
-      <c r="M15" s="3">
-        <v>100</v>
       </c>
       <c r="N15" s="3">
         <v>100</v>
       </c>
-      <c r="O15" s="3" t="s">
-        <v>8</v>
+      <c r="O15" s="3">
+        <v>100</v>
       </c>
       <c r="P15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q15" s="3">
-        <v>0</v>
+      <c r="Q15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R15" s="3">
         <v>0</v>
@@ -1263,8 +1285,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,144 +1311,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1012200</v>
+      </c>
+      <c r="E17" s="3">
         <v>966100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>936000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>829700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>794000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>787800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>686600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>697100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>700200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>738100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>725100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>634500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>617700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>676600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>658300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>571000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>543200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>592100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>557000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>477900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>502000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>497600</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>412800</v>
+      </c>
+      <c r="E18" s="3">
         <v>444500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>525900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>414100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>402300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>458600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>407300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>365000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>317000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>395500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>378900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>311500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>306500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>339600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>357600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>279900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>267200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>317400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>350100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>264200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>251800</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>290400</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,144 +1480,151 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E20" s="3">
         <v>-2300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-1500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-4600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-1800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>4200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>3100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>3000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>2700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>4400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>2900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>1800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>700</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>4000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-2600</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>700</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-5000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>428500</v>
+      </c>
+      <c r="E21" s="3">
         <v>455400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>540600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>427200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>415900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>467900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>421000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>382400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>338200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>414000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>399600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>329100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>325400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>356800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>372300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>295700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>281600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>333700</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>359100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>276100</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>257700</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>299900</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1622,14 +1661,14 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>8</v>
+      <c r="O22" s="3">
+        <v>0</v>
       </c>
       <c r="P22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q22" s="3">
-        <v>0</v>
+      <c r="Q22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R22" s="3">
         <v>0</v>
@@ -1652,144 +1691,153 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>419000</v>
+      </c>
+      <c r="E23" s="3">
         <v>442200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>526800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>413400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>400800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>454000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>405500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>365900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>321200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>398600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>382000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>314200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>310900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>342600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>358100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>281700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>267800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>321400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>347500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>264900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>246700</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>289300</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>97700</v>
+      </c>
+      <c r="E24" s="3">
         <v>105000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>123100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>98200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-70900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>106400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>94100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>87000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>66300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>99600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>89500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>52700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>70000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>74800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>88000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>65700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>24600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>102600</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>124900</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>86900</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>73800</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>97700</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,144 +1904,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>321300</v>
+      </c>
+      <c r="E26" s="3">
         <v>337200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>403800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>315200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>471700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>347700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>311400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>278800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>255000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>298900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>292500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>261500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>240900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>267700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>270100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>216100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>243200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>218700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>222600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>178000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>172900</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>191600</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>321300</v>
+      </c>
+      <c r="E27" s="3">
         <v>337200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>403800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>315200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>471700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>347700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>311400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>278800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>255000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>298900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>292500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>261500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>240900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>267700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>270100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>216100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>243200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>218700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>222600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>178000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>172900</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>191600</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2117,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2098,11 +2158,11 @@
       <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P29" s="3">
         <v>-1800</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>8</v>
@@ -2110,11 +2170,11 @@
       <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S29" s="3">
+      <c r="S29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T29" s="3">
         <v>-41900</v>
-      </c>
-      <c r="T29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>8</v>
@@ -2128,8 +2188,11 @@
       <c r="X29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2259,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,144 +2330,153 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="E32" s="3">
         <v>2300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>1500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>4600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>1800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-4200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-3100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-3000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-2700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-4400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-2900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-1800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-700</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-4000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>2600</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-700</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>5000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>321300</v>
+      </c>
+      <c r="E33" s="3">
         <v>337200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>403800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>315200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>471700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>347700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>311400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>278800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>255000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>298900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>292500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>261500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>239100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>267700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>270100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>216100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>201300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>218700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>222600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>178000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>172900</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>191600</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2543,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>321300</v>
+      </c>
+      <c r="E35" s="3">
         <v>337200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>403800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>315200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>471700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>347700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>311400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>278800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>255000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>298900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>292500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>261500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>239100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>267700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>270100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>216100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>201300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>218700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>222600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>178000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>172900</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>191600</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2719,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,620 +2746,648 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1326500</v>
+      </c>
+      <c r="E41" s="3">
         <v>1712700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1584200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1178900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1180400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1074700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>921300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>701800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>798000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>717600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>888200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>618300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>637500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>713700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>659700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>511400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>528600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>465600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>777700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>576300</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>377600</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>341500</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>1749700</v>
+      </c>
+      <c r="E42" s="3">
         <v>1224100</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>969000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>980100</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>881400</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>599300</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>250800</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>233500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>533100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>587400</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>358000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>263700</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>320700</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>457900</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>211100</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>585200</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>672900</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>630300</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>323900</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>209400</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>220600</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>257700</v>
       </c>
     </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>896700</v>
+      </c>
+      <c r="E43" s="3">
         <v>849200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>909200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>802500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>666000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>740800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>760400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>670600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>540300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>648000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>688200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>596700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>484600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>620200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>592600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>525500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>449500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>535300</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>537100</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>572000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>573100</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>592300</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>593400</v>
+      </c>
+      <c r="E44" s="3">
         <v>471600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>382900</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>368400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>333100</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>319000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>340500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>352300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>360700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>317700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>299500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>300800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>277700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>262100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>275600</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>268600</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>255700</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>213300</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>190600</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>171300</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>162000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>167800</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>115900</v>
+      </c>
+      <c r="E45" s="3">
         <v>126200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>105400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>104000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>80100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>92000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>98400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>90500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>84200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>90100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>92800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>127800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>83700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>98800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>89800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>147900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>179600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>89700</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>50900</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>87800</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>99100</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>190700</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>4682100</v>
+      </c>
+      <c r="E46" s="3">
         <v>4383700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>3950700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3433900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>3141000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2825800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2371500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2048700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2316300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2360800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2326800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1907300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1804200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2152700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1828700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>2038500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>2086400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1934300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1880100</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1616800</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1432300</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>1550000</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>100800</v>
+      </c>
+      <c r="E47" s="3">
         <v>29700</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>92400</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>65300</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>44300</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>20600</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>2100</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>13900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>12900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>16300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>8900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1900</v>
       </c>
-      <c r="O47" s="3">
-        <v>0</v>
-      </c>
       <c r="P47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="3">
         <v>1600</v>
       </c>
-      <c r="Q47" s="3">
-        <v>0</v>
-      </c>
       <c r="R47" s="3">
+        <v>0</v>
+      </c>
+      <c r="S47" s="3">
         <v>3500</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>2400</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>7000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>48600</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>500</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>2400</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>9500</v>
       </c>
     </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>336900</v>
+      </c>
+      <c r="E48" s="3">
         <v>329800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>330200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>334000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>337400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>327700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>325700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>326200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>330000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>276600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>265500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>266800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>243100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>242900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>240700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>231200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>230300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>225400</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>211600</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>189600</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>173300</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>144600</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2404000</v>
+      </c>
+      <c r="E49" s="3">
         <v>2397700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>2390000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>2394700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>2390700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>2391200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>2387200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>2384800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2383700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2379100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2377500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2374500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2377500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2373900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>2371000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>2368300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>2365700</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>2365100</v>
-      </c>
-      <c r="U49" s="3">
-        <v>2364500</v>
       </c>
       <c r="V49" s="3">
         <v>2364500</v>
       </c>
       <c r="W49" s="3">
+        <v>2364500</v>
+      </c>
+      <c r="X49" s="3">
         <v>2364300</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>2364500</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3454,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,76 +3525,82 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>280900</v>
+      </c>
+      <c r="E52" s="3">
         <v>308600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>308200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>306600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>289400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>132400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>107400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>107900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>107400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>104600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>105700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>105400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>102100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>100300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>101700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>98600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>106300</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>177100</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>179300</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>178300</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>181200</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>167800</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,76 +3667,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>7804800</v>
+      </c>
+      <c r="E54" s="3">
         <v>7449400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>7071500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>6534400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>6202700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>5697700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>5193800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>4881500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5150400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>5137400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>5084300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>4655900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>4526900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>4871400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>4542100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>4740100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>4791000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>4708900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>4684100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>4349700</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>4153500</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>4236400</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3767,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,114 +3794,118 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>404300</v>
+      </c>
+      <c r="E57" s="3">
         <v>396200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>362900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>334100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>296800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>281500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>262000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>305500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>274000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>304800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>292600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>267700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>248800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>278900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>267100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>226100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>245900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>229600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>242700</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>178100</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>193300</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>172200</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E58" s="3">
         <v>1600</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1700</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1600</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>800</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1200</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>2200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>900</v>
-      </c>
-      <c r="O58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P58" s="3" t="s">
         <v>8</v>
@@ -3783,8 +3916,8 @@
       <c r="R58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S58" s="3">
-        <v>0</v>
+      <c r="S58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T58" s="3">
         <v>0</v>
@@ -3801,144 +3934,153 @@
       <c r="X58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>559900</v>
+      </c>
+      <c r="E59" s="3">
         <v>534400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>522900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>453200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>452400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>491000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>411100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>393800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>385600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>407600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>411700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>362400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>352400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>377400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>347100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>308000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>314400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>368100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>318500</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>291700</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>277300</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>300500</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>965100</v>
+      </c>
+      <c r="E60" s="3">
         <v>932200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>887500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>788900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>750000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>773800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>674900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>701500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>661100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>714200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>705500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>631000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>601100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>656400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>614200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>534000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>560400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>597700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>561200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>469800</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>470600</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>472600</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4005,76 +4147,82 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>272700</v>
+      </c>
+      <c r="E62" s="3">
         <v>272100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>278500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>286000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>291800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>294600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>297400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>309000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>318000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>315200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>321200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>326100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>314800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>321700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>322700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>330500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>335400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>343100</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>346900</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>349700</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>353200</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>365400</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4289,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4360,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,76 +4431,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1237800</v>
+      </c>
+      <c r="E66" s="3">
         <v>1204400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1166000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1074900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1041900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1068400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>972300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1010600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>979100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1029400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1026700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>957000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>916000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>978100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>936900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>864500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>895800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>940800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>908100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>819500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>823800</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>838000</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4531,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4600,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4671,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4742,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +4813,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>7809500</v>
+      </c>
+      <c r="E72" s="3">
         <v>7488200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>7151000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>6747300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>6432100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>5960300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>5612700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>5301300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>5022500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>4767500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>4468600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>4176100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>3914600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>3675500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>3407800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>3137700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>2928200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>2726900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>2508200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>2285500</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>2107500</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>1934600</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4955,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5026,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5097,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>6567000</v>
+      </c>
+      <c r="E76" s="3">
         <v>6245000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>5905500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>5459400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>5160900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>4629300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>4221500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>3870900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>4171300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>4108000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>4057600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>3698800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>3610900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>3893300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>3605200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>3875600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>3895200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>3768200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>3776000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>3530200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>3329700</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>3398400</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5239,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>321300</v>
+      </c>
+      <c r="E81" s="3">
         <v>337200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>403800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>315200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>471700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>347700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>311400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>278800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>255000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>298900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>292500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>261500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>239100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>267700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>270100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>216100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>201300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>218700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>222600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>178000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>172900</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>191600</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,76 +5415,80 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>9400</v>
+      </c>
+      <c r="E83" s="3">
         <v>13200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>13700</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>13800</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>15100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>13800</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>15500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>16500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>17000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>15400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>17600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>14900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>14500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>14300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>14200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>14000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>13800</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>12300</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>11600</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>11200</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>11000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>10500</v>
       </c>
     </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5555,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5626,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5697,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5768,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,76 +5839,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>227800</v>
+      </c>
+      <c r="E89" s="3">
         <v>341400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>411100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>175500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>414900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>508800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>249300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>191100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>292700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>366300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>331400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>123400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>340500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>320100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>352400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>148900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>197700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>256800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>340300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>193000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>280700</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>173100</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,76 +5939,80 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-15700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-12600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-7100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-8400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-6700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-12900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-18000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-11100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-57300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-23300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-12600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-8500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-12100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-15200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-21600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-13000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-15700</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-27300</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-21400</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-19100</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-32300</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-49700</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6079,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,76 +6150,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-610300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-201500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-31100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-149100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-332000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-391200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-29300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>280000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>1500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-272100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-102800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>46800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>118800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-272000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>350300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>75900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-48100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-328700</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-148400</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-6300</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>10500</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-269300</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6250,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6319,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6390,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6461,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,208 +6532,220 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>13300</v>
+      </c>
+      <c r="E100" s="3">
         <v>7200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>20000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-5700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>6800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>20700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-7600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-546000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-223200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-254000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>36700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-188000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-534000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>10400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-546500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-246000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-86900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-241700</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>4600</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>12900</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-244800</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-16900</v>
+      </c>
+      <c r="E101" s="3">
         <v>-18700</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>5300</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-22200</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>15900</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>15100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>7100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-21300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>9400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-10800</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>4700</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-1300</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-1600</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-4400</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-7900</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>3900</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>400</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>1500</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>4800</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-800</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-10300</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-386200</v>
+      </c>
+      <c r="E102" s="3">
         <v>128400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>405400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-1500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>105700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>153400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>219500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-96100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>80300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-170600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>269900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-19200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-76200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>54000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>148300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-17300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>63100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-312100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>201300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>198800</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>36100</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-93200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MNST_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MNST_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="92">
   <si>
     <t>MNST</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,320 +665,333 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1518600</v>
+      </c>
+      <c r="E8" s="3">
         <v>1425000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1410600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1461900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1243800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1196300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1246400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1093900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1062100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1017200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1133600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1104000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>946000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>924200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1016200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1015900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>850900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>810400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>909500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>907100</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>742100</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>753800</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>788000</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>741900</v>
+      </c>
+      <c r="E9" s="3">
         <v>657500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>621400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>625100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>528900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>522800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>529000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>450300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>442000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>422900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>476600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>458400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>387800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>386700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>422500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>410500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>349100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>319700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>351700</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>336400</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>274400</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>267800</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>297100</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>776700</v>
+      </c>
+      <c r="E10" s="3">
         <v>767500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>789200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>836800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>714900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>673500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>717400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>643600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>620100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>594300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>657000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>645600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>558200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>537500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>593700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>605400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>501800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>490700</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>557800</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>570700</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>467700</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>486000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>490900</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1004,8 +1017,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1075,8 +1089,11 @@
       <c r="Y12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1146,16 +1163,19 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="3">
         <v>5300</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>8</v>
@@ -1163,70 +1183,73 @@
       <c r="G14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="3">
         <v>1700</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>3000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>1200</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>3000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>300</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>300</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>10700</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
       <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>14100</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>5500</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>7000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>-500</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>15900</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>200</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>19900</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>46300</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>100</v>
+      </c>
+      <c r="E15" s="3">
         <v>200</v>
-      </c>
-      <c r="E15" s="3">
-        <v>100</v>
       </c>
       <c r="F15" s="3">
         <v>100</v>
@@ -1238,34 +1261,34 @@
         <v>100</v>
       </c>
       <c r="I15" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J15" s="3">
         <v>200</v>
       </c>
       <c r="K15" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L15" s="3">
         <v>100</v>
       </c>
       <c r="M15" s="3">
+        <v>100</v>
+      </c>
+      <c r="N15" s="3">
         <v>200</v>
-      </c>
-      <c r="N15" s="3">
-        <v>100</v>
       </c>
       <c r="O15" s="3">
         <v>100</v>
       </c>
-      <c r="P15" s="3" t="s">
-        <v>8</v>
+      <c r="P15" s="3">
+        <v>100</v>
       </c>
       <c r="Q15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R15" s="3">
-        <v>0</v>
+      <c r="R15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S15" s="3">
         <v>0</v>
@@ -1288,8 +1311,11 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1312,150 +1338,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1119100</v>
+      </c>
+      <c r="E17" s="3">
         <v>1012200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>966100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>936000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>829700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>794000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>787800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>686600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>697100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>700200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>738100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>725100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>634500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>617700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>676600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>658300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>571000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>543200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>592100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>557000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>477900</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>502000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>497600</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>399500</v>
+      </c>
+      <c r="E18" s="3">
         <v>412800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>444500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>525900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>414100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>402300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>458600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>407300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>365000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>317000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>395500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>378900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>311500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>306500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>339600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>357600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>279900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>267200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>317400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>350100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>264200</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>251800</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>290400</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1481,150 +1514,157 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="E20" s="3">
         <v>6200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-2300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-1500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-4600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-1800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>4200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>3100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>3000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>2700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>4400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>2900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>1800</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>700</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>4000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-2600</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>700</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-5000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>406800</v>
+      </c>
+      <c r="E21" s="3">
         <v>428500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>455400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>540600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>427200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>415900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>467900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>421000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>382400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>338200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>414000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>399600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>329100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>325400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>356800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>372300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>295700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>281600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>333700</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>359100</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>276100</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>257700</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>299900</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1664,14 +1704,14 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>8</v>
+      <c r="P22" s="3">
+        <v>0</v>
       </c>
       <c r="Q22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R22" s="3">
-        <v>0</v>
+      <c r="R22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S22" s="3">
         <v>0</v>
@@ -1694,150 +1734,159 @@
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>392200</v>
+      </c>
+      <c r="E23" s="3">
         <v>419000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>442200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>526800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>413400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>400800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>454000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>405500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>365900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>321200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>398600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>382000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>314200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>310900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>342600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>358100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>281700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>267800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>321400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>347500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>264900</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>246700</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>289300</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>98000</v>
+      </c>
+      <c r="E24" s="3">
         <v>97700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>105000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>123100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>98200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-70900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>106400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>94100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>87000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>66300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>99600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>89500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>52700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>70000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>74800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>88000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>65700</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>24600</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>102600</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>124900</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>86900</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>73800</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>97700</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1907,150 +1956,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>294200</v>
+      </c>
+      <c r="E26" s="3">
         <v>321300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>337200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>403800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>315200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>471700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>347700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>311400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>278800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>255000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>298900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>292500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>261500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>240900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>267700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>270100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>216100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>243200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>218700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>222600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>178000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>172900</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>191600</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>294200</v>
+      </c>
+      <c r="E27" s="3">
         <v>321300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>337200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>403800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>315200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>471700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>347700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>311400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>278800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>255000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>298900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>292500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>261500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>240900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>267700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>270100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>216100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>243200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>218700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>222600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>178000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>172900</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>191600</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2120,31 +2178,34 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>8</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
@@ -2161,11 +2222,11 @@
       <c r="O29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P29" s="3">
+      <c r="P29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q29" s="3">
         <v>-1800</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>8</v>
@@ -2173,11 +2234,11 @@
       <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T29" s="3">
+      <c r="T29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U29" s="3">
         <v>-41900</v>
-      </c>
-      <c r="U29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="V29" s="3" t="s">
         <v>8</v>
@@ -2191,8 +2252,11 @@
       <c r="Y29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2262,8 +2326,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2333,150 +2400,159 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>7300</v>
+      </c>
+      <c r="E32" s="3">
         <v>-6200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>2300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>1500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>4600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>1800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-4200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-3100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-3000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-2700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-4400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-2900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-1800</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-700</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-4000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>2600</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-700</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>5000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>294200</v>
+      </c>
+      <c r="E33" s="3">
         <v>321300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>337200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>403800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>315200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>471700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>347700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>311400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>278800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>255000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>298900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>292500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>261500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>239100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>267700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>270100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>216100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>201300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>218700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>222600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>178000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>172900</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>191600</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2546,155 +2622,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>294200</v>
+      </c>
+      <c r="E35" s="3">
         <v>321300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>337200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>403800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>315200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>471700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>347700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>311400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>278800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>255000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>298900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>292500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>261500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>239100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>267700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>270100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>216100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>201300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>218700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>222600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>178000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>172900</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>191600</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2720,8 +2805,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2747,647 +2833,675 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1014800</v>
+      </c>
+      <c r="E41" s="3">
         <v>1326500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1712700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1584200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1178900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1180400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1074700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>921300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>701800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>798000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>717600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>888200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>618300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>637500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>713700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>659700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>511400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>528600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>465600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>777700</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>576300</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>377600</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>341500</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>1717600</v>
+      </c>
+      <c r="E42" s="3">
         <v>1749700</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>1224100</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>969000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>980100</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>881400</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>599300</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>250800</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>233500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>533100</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>587400</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>358000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>263700</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>320700</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>457900</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>211100</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>585200</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>672900</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>630300</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>323900</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>209400</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>220600</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>257700</v>
       </c>
     </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1039800</v>
+      </c>
+      <c r="E43" s="3">
         <v>896700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>849200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>909200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>802500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>666000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>740800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>760400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>670600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>540300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>648000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>688200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>596700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>484600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>620200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>592600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>525500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>449500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>535300</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>537100</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>572000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>573100</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>592300</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>821100</v>
+      </c>
+      <c r="E44" s="3">
         <v>593400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>471600</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>382900</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>368400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>333100</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>319000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>340500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>352300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>360700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>317700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>299500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>300800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>277700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>262100</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>275600</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>268600</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>255700</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>213300</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>190600</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>171300</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>162000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>167800</v>
       </c>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>150300</v>
+      </c>
+      <c r="E45" s="3">
         <v>115900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>126200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>105400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>104000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>80100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>92000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>98400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>90500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>84200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>90100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>92800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>127800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>83700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>98800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>89800</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>147900</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>179600</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>89700</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>50900</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>87800</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>99100</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>190700</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>4743700</v>
+      </c>
+      <c r="E46" s="3">
         <v>4682100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>4383700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3950700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>3433900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>3141000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2825800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2371500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2048700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2316300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2360800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2326800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1907300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1804200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2152700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1828700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>2038500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>2086400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1934300</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1880100</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1616800</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>1432300</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>1550000</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>67000</v>
+      </c>
+      <c r="E47" s="3">
         <v>100800</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>29700</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>92400</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>65300</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>44300</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>20600</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>2100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>13900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>12900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>16300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>8900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1900</v>
       </c>
-      <c r="P47" s="3">
-        <v>0</v>
-      </c>
       <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3">
         <v>1600</v>
       </c>
-      <c r="R47" s="3">
-        <v>0</v>
-      </c>
       <c r="S47" s="3">
+        <v>0</v>
+      </c>
+      <c r="T47" s="3">
         <v>3500</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>2400</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>7000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>48600</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>500</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>2400</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>9500</v>
       </c>
     </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>441600</v>
+      </c>
+      <c r="E48" s="3">
         <v>336900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>329800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>330200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>334000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>337400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>327700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>325700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>326200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>330000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>276600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>265500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>266800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>243100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>242900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>240700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>231200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>230300</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>225400</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>211600</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>189600</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>173300</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>144600</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2644000</v>
+      </c>
+      <c r="E49" s="3">
         <v>2404000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>2397700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>2390000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>2394700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>2390700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>2391200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>2387200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2384800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2383700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2379100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2377500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2374500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2377500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>2373900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>2371000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>2368300</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>2365700</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>2365100</v>
-      </c>
-      <c r="V49" s="3">
-        <v>2364500</v>
       </c>
       <c r="W49" s="3">
         <v>2364500</v>
       </c>
       <c r="X49" s="3">
+        <v>2364500</v>
+      </c>
+      <c r="Y49" s="3">
         <v>2364300</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>2364500</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3457,8 +3571,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3528,79 +3645,85 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>291200</v>
+      </c>
+      <c r="E52" s="3">
         <v>280900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>308600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>308200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>306600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>289400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>132400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>107400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>107900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>107400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>104600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>105700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>105400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>102100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>100300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>101700</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>98600</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>106300</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>177100</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>179300</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>178300</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>181200</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>167800</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3670,79 +3793,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>8187500</v>
+      </c>
+      <c r="E54" s="3">
         <v>7804800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>7449400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>7071500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>6534400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>6202700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>5697700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>5193800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4881500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>5150400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>5137400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>5084300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>4655900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>4526900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>4871400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>4542100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>4740100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>4791000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>4708900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>4684100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>4349700</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>4153500</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>4236400</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3768,8 +3897,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3795,120 +3925,124 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>438300</v>
+      </c>
+      <c r="E57" s="3">
         <v>404300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>396200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>362900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>334100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>296800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>281500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>262000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>305500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>274000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>304800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>292600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>267700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>248800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>278900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>267100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>226100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>245900</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>229600</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>242700</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>178100</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>193300</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>172200</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E58" s="3">
         <v>1000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1600</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1700</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1600</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>800</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>900</v>
-      </c>
-      <c r="P58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q58" s="3" t="s">
         <v>8</v>
@@ -3919,8 +4053,8 @@
       <c r="S58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T58" s="3">
-        <v>0</v>
+      <c r="T58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U58" s="3">
         <v>0</v>
@@ -3937,150 +4071,159 @@
       <c r="Y58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>604900</v>
+      </c>
+      <c r="E59" s="3">
         <v>559900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>534400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>522900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>453200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>452400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>491000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>411100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>393800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>385600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>407600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>411700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>362400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>352400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>377400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>347100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>308000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>314400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>368100</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>318500</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>291700</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>277300</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>300500</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1044400</v>
+      </c>
+      <c r="E60" s="3">
         <v>965100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>932200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>887500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>788900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>750000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>773800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>674900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>701500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>661100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>714200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>705500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>631000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>601100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>656400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>614200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>534000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>560400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>597700</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>561200</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>469800</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>470600</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>472600</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4150,79 +4293,85 @@
       <c r="Y61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>276400</v>
+      </c>
+      <c r="E62" s="3">
         <v>272700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>272100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>278500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>286000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>291800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>294600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>297400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>309000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>318000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>315200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>321200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>326100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>314800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>321700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>322700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>330500</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>335400</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>343100</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>346900</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>349700</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>353200</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>365400</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4292,8 +4441,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4363,8 +4515,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4434,79 +4589,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1320800</v>
+      </c>
+      <c r="E66" s="3">
         <v>1237800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1204400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1166000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1074900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1041900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1068400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>972300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1010600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>979100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1029400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1026700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>957000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>916000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>978100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>936900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>864500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>895800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>940800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>908100</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>819500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>823800</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>838000</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4532,8 +4693,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4603,8 +4765,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4674,8 +4839,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4745,8 +4913,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4816,79 +4987,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>8103800</v>
+      </c>
+      <c r="E72" s="3">
         <v>7809500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>7488200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>7151000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>6747300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>6432100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>5960300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>5612700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>5301300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>5022500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>4767500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>4468600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>4176100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>3914600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>3675500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>3407800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>3137700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>2928200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>2726900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>2508200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>2285500</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>2107500</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>1934600</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4958,8 +5135,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5029,8 +5209,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5100,79 +5283,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>6866700</v>
+      </c>
+      <c r="E76" s="3">
         <v>6567000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>6245000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>5905500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>5459400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>5160900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>4629300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>4221500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3870900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>4171300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>4108000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>4057600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>3698800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>3610900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>3893300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>3605200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>3875600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>3895200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>3768200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>3776000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>3530200</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>3329700</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>3398400</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5242,155 +5431,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>294200</v>
+      </c>
+      <c r="E81" s="3">
         <v>321300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>337200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>403800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>315200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>471700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>347700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>311400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>278800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>255000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>298900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>292500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>261500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>239100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>267700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>270100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>216100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>201300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>218700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>222600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>178000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>172900</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>191600</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5416,79 +5614,83 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>14600</v>
+      </c>
+      <c r="E83" s="3">
         <v>9400</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>13200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>13700</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>13800</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>15100</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>13800</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>15500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>16500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>17000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>15400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>17600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>14900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>14500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>14300</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>14200</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>14000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>13800</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>12300</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>11600</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>11200</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>11000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>10500</v>
       </c>
     </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5558,8 +5760,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5629,8 +5834,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5700,8 +5908,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5771,8 +5982,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5842,79 +6056,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E89" s="3">
         <v>227800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>341400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>411100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>175500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>414900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>508800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>249300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>191100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>292700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>366300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>331400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>123400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>340500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>320100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>352400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>148900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>197700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>256800</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>340300</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>193000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>280700</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>173100</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5940,79 +6160,83 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-21500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-15700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-12600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-7100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-8400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-6700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-12900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-18000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-11100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-57300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-23300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-12600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-8500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-12100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-15200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-21600</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-13000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-15700</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-27300</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-21400</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-19100</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-32300</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-49700</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6082,8 +6306,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6153,79 +6380,85 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-303600</v>
+      </c>
+      <c r="E94" s="3">
         <v>-610300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-201500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-31100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-149100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-332000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-391200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-29300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>280000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>1500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-272100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-102800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>46800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>118800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-272000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>350300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>75900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-48100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-328700</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-148400</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-6300</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>10500</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-269300</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6251,8 +6484,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6322,8 +6556,11 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6393,8 +6630,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6464,8 +6704,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6535,217 +6778,229 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="E100" s="3">
         <v>13300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>7200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>20000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-5700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>6800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>20700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-7600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-546000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-223200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-254000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>36700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-188000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-534000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>10400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-546500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-246000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-86900</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-241700</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>4600</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>12900</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-244800</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E101" s="3">
         <v>-16900</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-18700</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>5300</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-22200</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>15900</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>15100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>7100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-21300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>9400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-10800</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>4700</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-1300</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-4400</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-7900</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>3900</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>400</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>1500</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>4800</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-800</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-10300</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-311700</v>
+      </c>
+      <c r="E102" s="3">
         <v>-386200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>128400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>405400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-1500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>105700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>153400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>219500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-96100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>80300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-170600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>269900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-19200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-76200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>54000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>148300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-17300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>63100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-312100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>201300</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>198800</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>36100</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-93200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MNST_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MNST_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="92">
   <si>
     <t>MNST</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,333 +665,346 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1655300</v>
+      </c>
+      <c r="E8" s="3">
         <v>1518600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1425000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1410600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1461900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1243800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1196300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1246400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1093900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1062100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1017200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1133600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1104000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>946000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>924200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1016200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1015900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>850900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>810400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>909500</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>907100</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>742100</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>753800</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>788000</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>875400</v>
+      </c>
+      <c r="E9" s="3">
         <v>741900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>657500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>621400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>625100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>528900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>522800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>529000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>450300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>442000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>422900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>476600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>458400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>387800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>386700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>422500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>410500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>349100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>319700</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>351700</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>336400</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>274400</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>267800</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>297100</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>779900</v>
+      </c>
+      <c r="E10" s="3">
         <v>776700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>767500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>789200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>836800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>714900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>673500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>717400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>643600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>620100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>594300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>657000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>645600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>558200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>537500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>593700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>605400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>501800</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>490700</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>557800</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>570700</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>467700</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>486000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>490900</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1018,8 +1031,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1092,8 +1106,11 @@
       <c r="Z12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1166,19 +1183,22 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="3">
         <v>5300</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>8</v>
@@ -1186,62 +1206,65 @@
       <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="3">
         <v>1700</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>3000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>1200</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>3000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>300</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>300</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>10700</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
       <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>14100</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>5500</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>7000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>-500</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>15900</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>200</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>19900</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>46300</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1249,10 +1272,10 @@
         <v>100</v>
       </c>
       <c r="E15" s="3">
+        <v>100</v>
+      </c>
+      <c r="F15" s="3">
         <v>200</v>
-      </c>
-      <c r="F15" s="3">
-        <v>100</v>
       </c>
       <c r="G15" s="3">
         <v>100</v>
@@ -1264,34 +1287,34 @@
         <v>100</v>
       </c>
       <c r="J15" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K15" s="3">
         <v>200</v>
       </c>
       <c r="L15" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M15" s="3">
         <v>100</v>
       </c>
       <c r="N15" s="3">
+        <v>100</v>
+      </c>
+      <c r="O15" s="3">
         <v>200</v>
-      </c>
-      <c r="O15" s="3">
-        <v>100</v>
       </c>
       <c r="P15" s="3">
         <v>100</v>
       </c>
-      <c r="Q15" s="3" t="s">
-        <v>8</v>
+      <c r="Q15" s="3">
+        <v>100</v>
       </c>
       <c r="R15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S15" s="3">
-        <v>0</v>
+      <c r="S15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T15" s="3">
         <v>0</v>
@@ -1314,8 +1337,11 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1339,156 +1365,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1282300</v>
+      </c>
+      <c r="E17" s="3">
         <v>1119100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1012200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>966100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>936000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>829700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>794000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>787800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>686600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>697100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>700200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>738100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>725100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>634500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>617700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>676600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>658300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>571000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>543200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>592100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>557000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>477900</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>502000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>497600</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>373000</v>
+      </c>
+      <c r="E18" s="3">
         <v>399500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>412800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>444500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>525900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>414100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>402300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>458600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>407300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>365000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>317000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>395500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>378900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>311500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>306500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>339600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>357600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>279900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>267200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>317400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>350100</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>264200</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>251800</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>290400</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1515,156 +1548,163 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="E20" s="3">
         <v>-7300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>6200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-2300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-1500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-4600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>4200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>3100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>3000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>2700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>4400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>2900</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>1800</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>700</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>4000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-2600</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>700</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-5000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>382000</v>
+      </c>
+      <c r="E21" s="3">
         <v>406800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>428500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>455400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>540600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>427200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>415900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>467900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>421000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>382400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>338200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>414000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>399600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>329100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>325400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>356800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>372300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>295700</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>281600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>333700</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>359100</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>276100</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>257700</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>299900</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1707,14 +1747,14 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-      <c r="Q22" s="3" t="s">
-        <v>8</v>
+      <c r="Q22" s="3">
+        <v>0</v>
       </c>
       <c r="R22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S22" s="3">
-        <v>0</v>
+      <c r="S22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T22" s="3">
         <v>0</v>
@@ -1737,156 +1777,165 @@
       <c r="Z22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>366200</v>
+      </c>
+      <c r="E23" s="3">
         <v>392200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>419000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>442200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>526800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>413400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>400800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>454000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>405500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>365900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>321200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>398600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>382000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>314200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>310900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>342600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>358100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>281700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>267800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>321400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>347500</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>264900</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>246700</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>289300</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>92800</v>
+      </c>
+      <c r="E24" s="3">
         <v>98000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>97700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>105000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>123100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>98200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-70900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>106400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>94100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>87000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>66300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>99600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>89500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>52700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>70000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>74800</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>88000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>65700</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>24600</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>102600</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>124900</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>86900</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>73800</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>97700</v>
       </c>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1959,156 +2008,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>273400</v>
+      </c>
+      <c r="E26" s="3">
         <v>294200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>321300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>337200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>403800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>315200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>471700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>347700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>311400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>278800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>255000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>298900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>292500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>261500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>240900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>267700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>270100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>216100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>243200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>218700</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>222600</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>178000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>172900</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>191600</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>273400</v>
+      </c>
+      <c r="E27" s="3">
         <v>294200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>321300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>337200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>403800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>315200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>471700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>347700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>311400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>278800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>255000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>298900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>292500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>261500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>240900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>267700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>270100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>216100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>243200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>218700</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>222600</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>178000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>172900</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>191600</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2181,8 +2239,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2207,8 +2268,8 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>8</v>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
@@ -2225,11 +2286,11 @@
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="Q29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R29" s="3">
         <v>-1800</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>8</v>
@@ -2237,11 +2298,11 @@
       <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U29" s="3">
+      <c r="U29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V29" s="3">
         <v>-41900</v>
-      </c>
-      <c r="V29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="W29" s="3" t="s">
         <v>8</v>
@@ -2255,8 +2316,11 @@
       <c r="Z29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2329,8 +2393,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2403,156 +2470,165 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E32" s="3">
         <v>7300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-6200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>2300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>1500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>4600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-4200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-3100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-3000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-2700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-4400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-2900</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-1800</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-700</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-4000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>2600</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-700</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>5000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>273400</v>
+      </c>
+      <c r="E33" s="3">
         <v>294200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>321300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>337200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>403800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>315200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>471700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>347700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>311400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>278800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>255000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>298900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>292500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>261500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>239100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>267700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>270100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>216100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>201300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>218700</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>222600</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>178000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>172900</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>191600</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2625,161 +2701,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>273400</v>
+      </c>
+      <c r="E35" s="3">
         <v>294200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>321300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>337200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>403800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>315200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>471700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>347700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>311400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>278800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>255000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>298900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>292500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>261500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>239100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>267700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>270100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>216100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>201300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>218700</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>222600</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>178000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>172900</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>191600</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2806,8 +2891,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2834,674 +2920,702 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1132000</v>
+      </c>
+      <c r="E41" s="3">
         <v>1014800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1326500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1712700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1584200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1178900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1180400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1074700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>921300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>701800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>798000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>717600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>888200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>618300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>637500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>713700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>659700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>511400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>528600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>465600</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>777700</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>576300</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>377600</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>341500</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>1337800</v>
+      </c>
+      <c r="E42" s="3">
         <v>1717600</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>1749700</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>1224100</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>969000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>980100</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>881400</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>599300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>250800</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>233500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>533100</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>587400</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>358000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>263700</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>320700</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>457900</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>211100</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>585200</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>672900</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>630300</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>323900</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>209400</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>220600</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>257700</v>
       </c>
     </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1175600</v>
+      </c>
+      <c r="E43" s="3">
         <v>1039800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>896700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>849200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>909200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>802500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>666000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>740800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>760400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>670600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>540300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>648000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>688200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>596700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>484600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>620200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>592600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>525500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>449500</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>535300</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>537100</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>572000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>573100</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>592300</v>
       </c>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>885900</v>
+      </c>
+      <c r="E44" s="3">
         <v>821100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>593400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>471600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>382900</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>368400</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>333100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>319000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>340500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>352300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>360700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>317700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>299500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>300800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>277700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>262100</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>275600</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>268600</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>255700</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>213300</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>190600</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>171300</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>162000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>167800</v>
       </c>
     </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>165300</v>
+      </c>
+      <c r="E45" s="3">
         <v>150300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>115900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>126200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>105400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>104000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>80100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>92000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>98400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>90500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>84200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>90100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>92800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>127800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>83700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>98800</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>89800</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>147900</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>179600</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>89700</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>50900</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>87800</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>99100</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>190700</v>
       </c>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>4696600</v>
+      </c>
+      <c r="E46" s="3">
         <v>4743700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>4682100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>4383700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>3950700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>3433900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>3141000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2825800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2371500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2048700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2316300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2360800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2326800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1907300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1804200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>2152700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1828700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>2038500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>2086400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1934300</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1880100</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>1616800</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>1432300</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>1550000</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>65400</v>
+      </c>
+      <c r="E47" s="3">
         <v>67000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>100800</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>29700</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>92400</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>65300</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>44300</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>20600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>2100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>13900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>12900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>16300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>8900</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1900</v>
       </c>
-      <c r="Q47" s="3">
-        <v>0</v>
-      </c>
       <c r="R47" s="3">
+        <v>0</v>
+      </c>
+      <c r="S47" s="3">
         <v>1600</v>
       </c>
-      <c r="S47" s="3">
-        <v>0</v>
-      </c>
       <c r="T47" s="3">
+        <v>0</v>
+      </c>
+      <c r="U47" s="3">
         <v>3500</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>2400</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>7000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>48600</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>500</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>2400</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>9500</v>
       </c>
     </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>502000</v>
+      </c>
+      <c r="E48" s="3">
         <v>441600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>336900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>329800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>330200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>334000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>337400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>327700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>325700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>326200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>330000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>276600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>265500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>266800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>243100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>242900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>240700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>231200</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>230300</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>225400</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>211600</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>189600</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>173300</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>144600</v>
       </c>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2636100</v>
+      </c>
+      <c r="E49" s="3">
         <v>2644000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>2404000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>2397700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>2390000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>2394700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>2390700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>2391200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2387200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2384800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2383700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2379100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2377500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2374500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>2377500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>2373900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>2371000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>2368300</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>2365700</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>2365100</v>
-      </c>
-      <c r="W49" s="3">
-        <v>2364500</v>
       </c>
       <c r="X49" s="3">
         <v>2364500</v>
       </c>
       <c r="Y49" s="3">
+        <v>2364500</v>
+      </c>
+      <c r="Z49" s="3">
         <v>2364300</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>2364500</v>
       </c>
     </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3574,8 +3688,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3648,82 +3765,88 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>274900</v>
+      </c>
+      <c r="E52" s="3">
         <v>291200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>280900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>308600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>308200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>306600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>289400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>132400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>107400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>107900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>107400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>104600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>105700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>105400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>102100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>100300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>101700</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>98600</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>106300</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>177100</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>179300</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>178300</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>181200</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>167800</v>
       </c>
     </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3796,82 +3919,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>8175000</v>
+      </c>
+      <c r="E54" s="3">
         <v>8187500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>7804800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>7449400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>7071500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>6534400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>6202700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>5697700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5193800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>4881500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>5150400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>5137400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>5084300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>4655900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>4526900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>4871400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>4542100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>4740100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>4791000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>4708900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>4684100</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>4349700</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>4153500</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>4236400</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3898,8 +4027,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3926,126 +4056,130 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>492900</v>
+      </c>
+      <c r="E57" s="3">
         <v>438300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>404300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>396200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>362900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>334100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>296800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>281500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>262000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>305500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>274000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>304800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>292600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>267700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>248800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>278900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>267100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>226100</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>245900</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>229600</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>242700</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>178100</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>193300</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>172200</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E58" s="3">
         <v>1200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1600</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1700</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1600</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>900</v>
-      </c>
-      <c r="Q58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R58" s="3" t="s">
         <v>8</v>
@@ -4056,8 +4190,8 @@
       <c r="T58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U58" s="3">
-        <v>0</v>
+      <c r="U58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V58" s="3">
         <v>0</v>
@@ -4074,161 +4208,170 @@
       <c r="Z58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>599400</v>
+      </c>
+      <c r="E59" s="3">
         <v>604900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>559900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>534400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>522900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>453200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>452400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>491000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>411100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>393800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>385600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>407600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>411700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>362400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>352400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>377400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>347100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>308000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>314400</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>368100</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>318500</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>291700</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>277300</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>300500</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1093600</v>
+      </c>
+      <c r="E60" s="3">
         <v>1044400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>965100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>932200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>887500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>788900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>750000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>773800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>674900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>701500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>661100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>714200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>705500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>631000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>601100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>656400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>614200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>534000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>560400</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>597700</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>561200</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>469800</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>470600</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>472600</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -4296,82 +4439,88 @@
       <c r="Z61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>272200</v>
+      </c>
+      <c r="E62" s="3">
         <v>276400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>272700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>272100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>278500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>286000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>291800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>294600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>297400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>309000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>318000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>315200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>321200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>326100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>314800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>321700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>322700</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>330500</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>335400</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>343100</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>346900</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>349700</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>353200</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>365400</v>
       </c>
     </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4444,8 +4593,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4518,8 +4670,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4592,82 +4747,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1365800</v>
+      </c>
+      <c r="E66" s="3">
         <v>1320800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1237800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1204400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1166000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1074900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1041900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1068400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>972300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1010600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>979100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1029400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1026700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>957000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>916000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>978100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>936900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>864500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>895800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>940800</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>908100</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>819500</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>823800</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>838000</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4694,8 +4855,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4768,8 +4930,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4842,8 +5007,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4916,8 +5084,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4990,82 +5161,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>8377100</v>
+      </c>
+      <c r="E72" s="3">
         <v>8103800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>7809500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>7488200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>7151000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>6747300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>6432100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>5960300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>5612700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>5301300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>5022500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>4767500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>4468600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>4176100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>3914600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>3675500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>3407800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>3137700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>2928200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>2726900</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>2508200</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>2285500</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>2107500</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>1934600</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5138,8 +5315,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5212,8 +5392,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5286,82 +5469,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>6809200</v>
+      </c>
+      <c r="E76" s="3">
         <v>6866700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>6567000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>6245000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>5905500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>5459400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>5160900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>4629300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>4221500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3870900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>4171300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>4108000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>4057600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>3698800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>3610900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>3893300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>3605200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>3875600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>3895200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>3768200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>3776000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>3530200</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>3329700</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>3398400</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5434,161 +5623,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>273400</v>
+      </c>
+      <c r="E81" s="3">
         <v>294200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>321300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>337200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>403800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>315200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>471700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>347700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>311400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>278800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>255000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>298900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>292500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>261500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>239100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>267700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>270100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>216100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>201300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>218700</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>222600</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>178000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>172900</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>191600</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5615,82 +5813,86 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>15800</v>
+      </c>
+      <c r="E83" s="3">
         <v>14600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>9400</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>13200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>13700</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>13800</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>15100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>13800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>15500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>16500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>17000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>15400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>17600</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>14900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>14500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>14300</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>14200</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>14000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>13800</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>12300</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>11600</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>11200</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>11000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>10500</v>
       </c>
     </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5763,8 +5965,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5837,8 +6042,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5911,8 +6119,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5985,8 +6196,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6059,82 +6273,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>131000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>227800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>341400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>411100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>175500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>414900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>508800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>249300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>191100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>292700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>366300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>331400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>123400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>340500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>320100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>352400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>148900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>197700</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>256800</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>340300</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>193000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>280700</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>173100</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6161,82 +6381,86 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-77900</v>
+      </c>
+      <c r="E91" s="3">
         <v>-21500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-15700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-12600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-7100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-8400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-6700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-12900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-18000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-11100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-57300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-23300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-12600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-8500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-12100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-15200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-21600</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-13000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-15700</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-27300</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-21400</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-19100</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-32300</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-49700</v>
       </c>
     </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6309,8 +6533,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6383,82 +6610,88 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>297900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-303600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-610300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-201500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-31100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-149100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-332000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-391200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-29300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>280000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>1500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-272100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-102800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>46800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>118800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-272000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>350300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>75900</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-48100</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-328700</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-148400</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-6300</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>10500</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-269300</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6485,8 +6718,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6559,8 +6793,11 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6633,8 +6870,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6707,8 +6947,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6781,226 +7024,238 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-264700</v>
+      </c>
+      <c r="E100" s="3">
         <v>-4200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>13300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>7200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>20000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-5700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>6800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>20700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-7600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-546000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-223200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-254000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>36700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-188000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-534000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>10400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-546500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-246000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-86900</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-241700</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>4600</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>12900</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-244800</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-46900</v>
+      </c>
+      <c r="E101" s="3">
         <v>-3500</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-16900</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-18700</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>5300</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-22200</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>15900</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>15100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>7100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-21300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>9400</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-10800</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>4700</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-1600</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-4400</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-7900</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>3900</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>400</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>1500</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>4800</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-800</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-10300</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>117300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-311700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-386200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>128400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>405400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-1500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>105700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>153400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>219500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-96100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>80300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-170600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>269900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-19200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-76200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>54000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>148300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-17300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>63100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-312100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>201300</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>198800</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>36100</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-93200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MNST_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MNST_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="92">
   <si>
     <t>MNST</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,346 +665,371 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1512900</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1624300</v>
+      </c>
+      <c r="F8" s="3">
         <v>1655300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>1518600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>1425000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>1410600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>1461900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>1243800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>1196300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>1246400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>1093900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>1062100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>1017200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>1133600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>1104000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>946000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>924200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>1016200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>1015900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>850900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>810400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>909500</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>907100</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>742100</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AB8" s="3">
         <v>753800</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AC8" s="3">
         <v>788000</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>728600</v>
+      </c>
+      <c r="E9" s="3">
+        <v>790600</v>
+      </c>
+      <c r="F9" s="3">
         <v>875400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>741900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>657500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>621400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>625100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>528900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>522800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>529000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>450300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>442000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>422900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>476600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>458400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>387800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>386700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>422500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>410500</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>349100</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>319700</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>351700</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>336400</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="AA9" s="3">
         <v>274400</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AB9" s="3">
         <v>267800</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AC9" s="3">
         <v>297100</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>784300</v>
+      </c>
+      <c r="E10" s="3">
+        <v>833700</v>
+      </c>
+      <c r="F10" s="3">
         <v>779900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>776700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>767500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>789200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>836800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>714900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>673500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>717400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>643600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>620100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>594300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>657000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>645600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>558200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>537500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>593700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>605400</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>501800</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>490700</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>557800</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>570700</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="AA10" s="3">
         <v>467700</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AB10" s="3">
         <v>486000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AC10" s="3">
         <v>490900</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1032,8 +1057,10 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1109,8 +1136,14 @@
       <c r="AA12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1186,8 +1219,14 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1197,74 +1236,80 @@
       <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3">
-        <v>5300</v>
+      <c r="F14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>8</v>
+      <c r="H14" s="3">
+        <v>5300</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L14" s="3">
         <v>1700</v>
-      </c>
-      <c r="K14" s="3">
-        <v>3000</v>
-      </c>
-      <c r="L14" s="3">
-        <v>1200</v>
       </c>
       <c r="M14" s="3">
         <v>3000</v>
       </c>
       <c r="N14" s="3">
-        <v>300</v>
+        <v>1200</v>
       </c>
       <c r="O14" s="3">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="P14" s="3">
         <v>300</v>
       </c>
       <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>300</v>
+      </c>
+      <c r="S14" s="3">
         <v>10700</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
         <v>14100</v>
       </c>
-      <c r="T14" s="3">
+      <c r="V14" s="3">
         <v>5500</v>
       </c>
-      <c r="U14" s="3">
+      <c r="W14" s="3">
         <v>7000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="X14" s="3">
         <v>-500</v>
       </c>
-      <c r="W14" s="3">
+      <c r="Y14" s="3">
         <v>15900</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Z14" s="3">
         <v>200</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="AA14" s="3">
         <v>19900</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AB14" s="3">
         <v>46300</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AC14" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1275,13 +1320,13 @@
         <v>100</v>
       </c>
       <c r="F15" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G15" s="3">
         <v>100</v>
       </c>
       <c r="H15" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I15" s="3">
         <v>100</v>
@@ -1290,38 +1335,38 @@
         <v>100</v>
       </c>
       <c r="K15" s="3">
+        <v>100</v>
+      </c>
+      <c r="L15" s="3">
+        <v>100</v>
+      </c>
+      <c r="M15" s="3">
         <v>200</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>200</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>100</v>
-      </c>
-      <c r="N15" s="3">
-        <v>100</v>
-      </c>
-      <c r="O15" s="3">
-        <v>200</v>
       </c>
       <c r="P15" s="3">
         <v>100</v>
       </c>
       <c r="Q15" s="3">
+        <v>200</v>
+      </c>
+      <c r="R15" s="3">
         <v>100</v>
       </c>
-      <c r="R15" s="3" t="s">
+      <c r="S15" s="3">
+        <v>100</v>
+      </c>
+      <c r="T15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S15" s="3" t="s">
+      <c r="U15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T15" s="3">
-        <v>0</v>
-      </c>
-      <c r="U15" s="3">
-        <v>0</v>
-      </c>
       <c r="V15" s="3">
         <v>0</v>
       </c>
@@ -1340,8 +1385,14 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,162 +1417,176 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1118600</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1206400</v>
+      </c>
+      <c r="F17" s="3">
         <v>1282300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>1119100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>1012200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>966100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>936000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>829700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>794000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>787800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>686600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>697100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>700200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>738100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>725100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>634500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>617700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>676600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>658300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>571000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>543200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>592100</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>557000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>477900</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>502000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AC17" s="3">
         <v>497600</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>394300</v>
+      </c>
+      <c r="E18" s="3">
+        <v>417900</v>
+      </c>
+      <c r="F18" s="3">
         <v>373000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>399500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>412800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>444500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>525900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>414100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>402300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>458600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>407300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>365000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>317000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>395500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>378900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>311500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>306500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>339600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>357600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>279900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>267200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>317400</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>350100</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>264200</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AB18" s="3">
         <v>251800</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AC18" s="3">
         <v>290400</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,162 +1614,176 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E20" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F20" s="3">
         <v>-6800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-7300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>6200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-2300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-1500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-4600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-1800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>4200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>3100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>3000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>2700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>4400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>2900</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>400</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>1800</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>700</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>4000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>-2600</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="AA20" s="3">
         <v>700</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AB20" s="3">
         <v>-5000</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AC20" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>408700</v>
+      </c>
+      <c r="E21" s="3">
+        <v>435700</v>
+      </c>
+      <c r="F21" s="3">
         <v>382000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>406800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>428500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>455400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>540600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>427200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>415900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>467900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>421000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>382400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>338200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>414000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>399600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>329100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>325400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>356800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>372300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>295700</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>281600</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>333700</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>359100</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>276100</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AB21" s="3">
         <v>257700</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AC21" s="3">
         <v>299900</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1750,18 +1829,18 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-      <c r="R22" s="3" t="s">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+      <c r="T22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S22" s="3" t="s">
+      <c r="U22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T22" s="3">
-        <v>0</v>
-      </c>
-      <c r="U22" s="3">
-        <v>0</v>
-      </c>
       <c r="V22" s="3">
         <v>0</v>
       </c>
@@ -1780,162 +1859,180 @@
       <c r="AA22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>393500</v>
+      </c>
+      <c r="E23" s="3">
+        <v>420100</v>
+      </c>
+      <c r="F23" s="3">
         <v>366200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>392200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>419000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>442200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>526800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>413400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>400800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>454000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>405500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>365900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>321200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>398600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>382000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>314200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>310900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>342600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>358100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>281700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>267800</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>321400</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>347500</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>264900</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>246700</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AC23" s="3">
         <v>289300</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>91900</v>
+      </c>
+      <c r="E24" s="3">
+        <v>97700</v>
+      </c>
+      <c r="F24" s="3">
         <v>92800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>98000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>97700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>105000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>123100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>98200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>-70900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>106400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>94100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>87000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>66300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>99600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>89500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>52700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>70000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>74800</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>88000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>65700</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>24600</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>102600</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>124900</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="AA24" s="3">
         <v>86900</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AB24" s="3">
         <v>73800</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AC24" s="3">
         <v>97700</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,162 +2108,180 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>301700</v>
+      </c>
+      <c r="E26" s="3">
+        <v>322400</v>
+      </c>
+      <c r="F26" s="3">
         <v>273400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>294200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>321300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>337200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>403800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>315200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>471700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>347700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>311400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>278800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>255000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>298900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>292500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>261500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>240900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>267700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>270100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>216100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>243200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>218700</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>222600</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>178000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AB26" s="3">
         <v>172900</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AC26" s="3">
         <v>191600</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>301700</v>
+      </c>
+      <c r="E27" s="3">
+        <v>322400</v>
+      </c>
+      <c r="F27" s="3">
         <v>273400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>294200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>321300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>337200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>403800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>315200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>471700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>347700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>311400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>278800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>255000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>298900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>292500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>261500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>240900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>267700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>270100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>216100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>243200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>218700</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>222600</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>178000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AB27" s="3">
         <v>172900</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AC27" s="3">
         <v>191600</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2357,14 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2271,11 +2392,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
@@ -2289,26 +2410,26 @@
       <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R29" s="3">
-        <v>-1800</v>
+      <c r="R29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T29" s="3" t="s">
-        <v>8</v>
+      <c r="T29" s="3">
+        <v>-1800</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V29" s="3">
-        <v>-41900</v>
+      <c r="V29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X29" s="3" t="s">
-        <v>8</v>
+      <c r="X29" s="3">
+        <v>-41900</v>
       </c>
       <c r="Y29" s="3" t="s">
         <v>8</v>
@@ -2319,8 +2440,14 @@
       <c r="AA29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2523,14 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,162 +2606,180 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>800</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="F32" s="3">
         <v>6800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>7300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-6200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>2300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>1500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>4600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>1800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-4200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-3100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-3000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-2700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-4400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>-2900</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>-400</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>-1800</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>-700</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>-4000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>2600</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="AA32" s="3">
         <v>-700</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AB32" s="3">
         <v>5000</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AC32" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>301700</v>
+      </c>
+      <c r="E33" s="3">
+        <v>322400</v>
+      </c>
+      <c r="F33" s="3">
         <v>273400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>294200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>321300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>337200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>403800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>315200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>471700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>347700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>311400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>278800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>255000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>298900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>292500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>261500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>239100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>267700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>270100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>216100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>201300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>218700</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>222600</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>178000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AB33" s="3">
         <v>172900</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AC33" s="3">
         <v>191600</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,167 +2855,185 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>301700</v>
+      </c>
+      <c r="E35" s="3">
+        <v>322400</v>
+      </c>
+      <c r="F35" s="3">
         <v>273400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>294200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>321300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>337200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>403800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>315200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>471700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>347700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>311400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>278800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>255000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>298900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>292500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>261500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>239100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>267700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>270100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>216100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>201300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>218700</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>222600</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>178000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AB35" s="3">
         <v>172900</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AC35" s="3">
         <v>191600</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +3061,10 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,701 +3092,757 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1307100</v>
+      </c>
+      <c r="E41" s="3">
+        <v>1303000</v>
+      </c>
+      <c r="F41" s="3">
         <v>1132000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>1014800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>1326500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>1712700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>1584200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>1178900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>1180400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>1074700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>921300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>701800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>798000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>717600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>888200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>618300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>637500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>713700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>659700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>511400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>528600</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>465600</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>777700</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>576300</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AB41" s="3">
         <v>377600</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AC41" s="3">
         <v>341500</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>1362300</v>
+      </c>
+      <c r="E42" s="3">
+        <v>1346800</v>
+      </c>
+      <c r="F42" s="3">
         <v>1337800</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>1717600</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>1749700</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>1224100</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>969000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>980100</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>881400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>599300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>250800</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>233500</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>533100</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>587400</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>358000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>263700</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>320700</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>457900</v>
       </c>
-      <c r="T42" s="3">
+      <c r="V42" s="3">
         <v>211100</v>
       </c>
-      <c r="U42" s="3">
+      <c r="W42" s="3">
         <v>585200</v>
       </c>
-      <c r="V42" s="3">
+      <c r="X42" s="3">
         <v>672900</v>
       </c>
-      <c r="W42" s="3">
+      <c r="Y42" s="3">
         <v>630300</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Z42" s="3">
         <v>323900</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="AA42" s="3">
         <v>209400</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AB42" s="3">
         <v>220600</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AC42" s="3">
         <v>257700</v>
       </c>
     </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1016200</v>
+      </c>
+      <c r="E43" s="3">
+        <v>1051600</v>
+      </c>
+      <c r="F43" s="3">
         <v>1175600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>1039800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>896700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>849200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>909200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>802500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>666000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>740800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>760400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>670600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>540300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>648000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>688200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>596700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>484600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>620200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>592600</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>525500</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>449500</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>535300</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>537100</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="AA43" s="3">
         <v>572000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AB43" s="3">
         <v>573100</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AC43" s="3">
         <v>592300</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>935600</v>
+      </c>
+      <c r="E44" s="3">
+        <v>863000</v>
+      </c>
+      <c r="F44" s="3">
         <v>885900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>821100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>593400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>471600</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>382900</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>368400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>333100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>319000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>340500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>352300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>360700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>317700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>299500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>300800</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>277700</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>262100</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>275600</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>268600</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>255700</v>
       </c>
-      <c r="W44" s="3">
+      <c r="Y44" s="3">
         <v>213300</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Z44" s="3">
         <v>190600</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="AA44" s="3">
         <v>171300</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AB44" s="3">
         <v>162000</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AC44" s="3">
         <v>167800</v>
       </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>143600</v>
+      </c>
+      <c r="E45" s="3">
+        <v>132200</v>
+      </c>
+      <c r="F45" s="3">
         <v>165300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>150300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>115900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>126200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>105400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>104000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>80100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>92000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>98400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>90500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>84200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>90100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>92800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>127800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>83700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>98800</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>89800</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>147900</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>179600</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>89700</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Z45" s="3">
         <v>50900</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="AA45" s="3">
         <v>87800</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AB45" s="3">
         <v>99100</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AC45" s="3">
         <v>190700</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>4764900</v>
+      </c>
+      <c r="E46" s="3">
+        <v>4696700</v>
+      </c>
+      <c r="F46" s="3">
         <v>4696600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>4743700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>4682100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>4383700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>3950700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>3433900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>3141000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>2825800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>2371500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>2048700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>2316300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>2360800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>2326800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>1907300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>1804200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>2152700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>1828700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>2038500</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>2086400</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>1934300</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>1880100</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>1616800</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AB46" s="3">
         <v>1432300</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AC46" s="3">
         <v>1550000</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>61400</v>
+      </c>
+      <c r="E47" s="3">
+        <v>72400</v>
+      </c>
+      <c r="F47" s="3">
         <v>65400</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>67000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>100800</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>29700</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>92400</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>65300</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>44300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>20600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>2100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>13900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>12900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>16300</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>8900</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>1900</v>
       </c>
-      <c r="R47" s="3">
-        <v>0</v>
-      </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+      <c r="U47" s="3">
         <v>1600</v>
       </c>
-      <c r="T47" s="3">
-        <v>0</v>
-      </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+      <c r="W47" s="3">
         <v>3500</v>
       </c>
-      <c r="V47" s="3">
+      <c r="X47" s="3">
         <v>2400</v>
       </c>
-      <c r="W47" s="3">
+      <c r="Y47" s="3">
         <v>7000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Z47" s="3">
         <v>48600</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="AA47" s="3">
         <v>500</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AB47" s="3">
         <v>2400</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AC47" s="3">
         <v>9500</v>
       </c>
     </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>554900</v>
+      </c>
+      <c r="E48" s="3">
+        <v>522600</v>
+      </c>
+      <c r="F48" s="3">
         <v>502000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>441600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>336900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>329800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>330200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>334000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>337400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>327700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>325700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>326200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>330000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>276600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>265500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>266800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>243100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>242900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>240700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>231200</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>230300</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>225400</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>211600</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AA48" s="3">
         <v>189600</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AB48" s="3">
         <v>173300</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AC48" s="3">
         <v>144600</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2638400</v>
+      </c>
+      <c r="E49" s="3">
+        <v>2638800</v>
+      </c>
+      <c r="F49" s="3">
         <v>2636100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>2644000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>2404000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>2397700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>2390000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>2394700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>2390700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>2391200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>2387200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>2384800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>2383700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>2379100</v>
-      </c>
-      <c r="P49" s="3">
-        <v>2377500</v>
-      </c>
-      <c r="Q49" s="3">
-        <v>2374500</v>
       </c>
       <c r="R49" s="3">
         <v>2377500</v>
       </c>
       <c r="S49" s="3">
+        <v>2374500</v>
+      </c>
+      <c r="T49" s="3">
+        <v>2377500</v>
+      </c>
+      <c r="U49" s="3">
         <v>2373900</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>2371000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>2368300</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>2365700</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>2365100</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Z49" s="3">
         <v>2364500</v>
-      </c>
-      <c r="Y49" s="3">
-        <v>2364500</v>
-      </c>
-      <c r="Z49" s="3">
-        <v>2364300</v>
       </c>
       <c r="AA49" s="3">
         <v>2364500</v>
       </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3">
+        <v>2364300</v>
+      </c>
+      <c r="AC49" s="3">
+        <v>2364500</v>
+      </c>
+    </row>
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3918,14 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,85 +4001,97 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>273500</v>
+      </c>
+      <c r="E52" s="3">
+        <v>274300</v>
+      </c>
+      <c r="F52" s="3">
         <v>274900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>291200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>280900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>308600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>308200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>306600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>289400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>132400</v>
-      </c>
-      <c r="L52" s="3">
-        <v>107400</v>
-      </c>
-      <c r="M52" s="3">
-        <v>107900</v>
       </c>
       <c r="N52" s="3">
         <v>107400</v>
       </c>
       <c r="O52" s="3">
+        <v>107900</v>
+      </c>
+      <c r="P52" s="3">
+        <v>107400</v>
+      </c>
+      <c r="Q52" s="3">
         <v>104600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>105700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>105400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>102100</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>100300</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>101700</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>98600</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>106300</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>177100</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Z52" s="3">
         <v>179300</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="AA52" s="3">
         <v>178300</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AB52" s="3">
         <v>181200</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AC52" s="3">
         <v>167800</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,85 +4167,97 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>8293100</v>
+      </c>
+      <c r="E54" s="3">
+        <v>8204800</v>
+      </c>
+      <c r="F54" s="3">
         <v>8175000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>8187500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>7804800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>7449400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>7071500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>6534400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>6202700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>5697700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>5193800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>4881500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>5150400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>5137400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>5084300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>4655900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>4526900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>4871400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>4542100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>4740100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>4791000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>4708900</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>4684100</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>4349700</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>4153500</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AC54" s="3">
         <v>4236400</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4285,10 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,135 +4316,143 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>444300</v>
+      </c>
+      <c r="E57" s="3">
+        <v>520200</v>
+      </c>
+      <c r="F57" s="3">
         <v>492900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>438300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>404300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>396200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>362900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>334100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>296800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>281500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>262000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>305500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>274000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>304800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>292600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>267700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>248800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>278900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>267100</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>226100</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>245900</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>229600</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>242700</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>178100</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AB57" s="3">
         <v>193300</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AC57" s="3">
         <v>172200</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>800</v>
+      </c>
+      <c r="E58" s="3">
+        <v>900</v>
+      </c>
+      <c r="F58" s="3">
         <v>1300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>1200</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>1000</v>
-      </c>
-      <c r="G58" s="3">
-        <v>1600</v>
-      </c>
-      <c r="H58" s="3">
-        <v>1700</v>
       </c>
       <c r="I58" s="3">
         <v>1600</v>
       </c>
       <c r="J58" s="3">
+        <v>1700</v>
+      </c>
+      <c r="K58" s="3">
+        <v>1600</v>
+      </c>
+      <c r="L58" s="3">
         <v>800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>1200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>1800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>2200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>1500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>1800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>1200</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>900</v>
-      </c>
-      <c r="R58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="T58" s="3" t="s">
         <v>8</v>
@@ -4193,11 +4460,11 @@
       <c r="U58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V58" s="3">
-        <v>0</v>
-      </c>
-      <c r="W58" s="3">
-        <v>0</v>
+      <c r="V58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="X58" s="3">
         <v>0</v>
@@ -4211,174 +4478,192 @@
       <c r="AA58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>557000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>600600</v>
+      </c>
+      <c r="F59" s="3">
         <v>599400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>604900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>559900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>534400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>522900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>453200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>452400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>491000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>411100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>393800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>385600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>407600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>411700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>362400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>352400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>377400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>347100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>308000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>314400</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>368100</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>318500</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>291700</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AB59" s="3">
         <v>277300</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AC59" s="3">
         <v>300500</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1002000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1121700</v>
+      </c>
+      <c r="F60" s="3">
         <v>1093600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>1044400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>965100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>932200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>887500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>788900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>750000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>773800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>674900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>701500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>661100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>714200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>705500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>631000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>601100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>656400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>614200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>534000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>560400</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>597700</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>561200</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>469800</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AB60" s="3">
         <v>470600</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AC60" s="3">
         <v>472600</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>0</v>
+      </c>
+      <c r="E61" s="3">
+        <v>0</v>
+      </c>
+      <c r="F61" s="3">
         <v>100</v>
       </c>
-      <c r="E61" s="3">
-        <v>0</v>
-      </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
       <c r="G61" s="3">
         <v>0</v>
       </c>
@@ -4442,85 +4727,97 @@
       <c r="AA61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>266000</v>
+      </c>
+      <c r="E62" s="3">
+        <v>267300</v>
+      </c>
+      <c r="F62" s="3">
         <v>272200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>276400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>272700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>272100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>278500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>286000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>291800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>294600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>297400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>309000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>318000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>315200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>321200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>326100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>314800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>321700</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>322700</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>330500</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>335400</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>343100</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Z62" s="3">
         <v>346900</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="AA62" s="3">
         <v>349700</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AB62" s="3">
         <v>353200</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AC62" s="3">
         <v>365400</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4893,14 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4976,14 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,85 +5059,97 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1268100</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1389000</v>
+      </c>
+      <c r="F66" s="3">
         <v>1365800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>1320800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>1237800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>1204400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>1166000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>1074900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>1041900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>1068400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>972300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>1010600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>979100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>1029400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>1026700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>957000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>916000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>978100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>936900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>864500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>895800</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>940800</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>908100</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>819500</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>823800</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AC66" s="3">
         <v>838000</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5177,10 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5256,14 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5339,14 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5087,8 +5422,14 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,85 +5505,97 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>9001200</v>
+      </c>
+      <c r="E72" s="3">
+        <v>8699500</v>
+      </c>
+      <c r="F72" s="3">
         <v>8377100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>8103800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>7809500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>7488200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>7151000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>6747300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>6432100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>5960300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>5612700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>5301300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>5022500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>4767500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>4468600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>4176100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>3914600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>3675500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>3407800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>3137700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>2928200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>2726900</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>2508200</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>2285500</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>2107500</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AC72" s="3">
         <v>1934600</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5671,14 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5754,14 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,85 +5837,97 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>7025000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>6815800</v>
+      </c>
+      <c r="F76" s="3">
         <v>6809200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>6866700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>6567000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>6245000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>5905500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>5459400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>5160900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>4629300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>4221500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>3870900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>4171300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>4108000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>4057600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>3698800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>3610900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>3893300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>3605200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>3875600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>3895200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>3768200</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>3776000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>3530200</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>3329700</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AC76" s="3">
         <v>3398400</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,167 +6003,185 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>301700</v>
+      </c>
+      <c r="E81" s="3">
+        <v>322400</v>
+      </c>
+      <c r="F81" s="3">
         <v>273400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>294200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>321300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>337200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>403800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>315200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>471700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>347700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>311400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>278800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>255000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>298900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>292500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>261500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>239100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>267700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>270100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>216100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>201300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>218700</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>222600</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>178000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AB81" s="3">
         <v>172900</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AC81" s="3">
         <v>191600</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,85 +6209,93 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>15200</v>
+      </c>
+      <c r="E83" s="3">
+        <v>15600</v>
+      </c>
+      <c r="F83" s="3">
         <v>15800</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>14600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>9400</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>13200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>13700</v>
-      </c>
-      <c r="I83" s="3">
-        <v>13800</v>
-      </c>
-      <c r="J83" s="3">
-        <v>15100</v>
       </c>
       <c r="K83" s="3">
         <v>13800</v>
       </c>
       <c r="L83" s="3">
+        <v>15100</v>
+      </c>
+      <c r="M83" s="3">
+        <v>13800</v>
+      </c>
+      <c r="N83" s="3">
         <v>15500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>16500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>17000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>15400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>17600</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>14900</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>14500</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>14300</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>14200</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>14000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="X83" s="3">
         <v>13800</v>
       </c>
-      <c r="W83" s="3">
+      <c r="Y83" s="3">
         <v>12300</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Z83" s="3">
         <v>11600</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="AA83" s="3">
         <v>11200</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AB83" s="3">
         <v>11000</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AC83" s="3">
         <v>10500</v>
       </c>
     </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6371,14 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6454,14 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6537,14 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6620,14 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,85 +6703,97 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>298500</v>
+      </c>
+      <c r="E89" s="3">
+        <v>458500</v>
+      </c>
+      <c r="F89" s="3">
         <v>131000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>227800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>341400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>411100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>175500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>414900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>508800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>249300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>191100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>292700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>366300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>331400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>123400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>340500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>320100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>352400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>148900</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>197700</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>256800</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>340300</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>193000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AB89" s="3">
         <v>280700</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AC89" s="3">
         <v>173100</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,85 +6821,93 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-52600</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-36700</v>
+      </c>
+      <c r="F91" s="3">
         <v>-77900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-21500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-15700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-12600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-7100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-8400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-6700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-12900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-18000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-11100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-57300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-23300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-12600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-8500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-12100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-15200</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-21600</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-13000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-15700</v>
       </c>
-      <c r="W91" s="3">
+      <c r="Y91" s="3">
         <v>-27300</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Z91" s="3">
         <v>-21400</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="AA91" s="3">
         <v>-19100</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AB91" s="3">
         <v>-32300</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AC91" s="3">
         <v>-49700</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6983,14 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,85 +7066,97 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-103600</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-52000</v>
+      </c>
+      <c r="F94" s="3">
         <v>297900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-303600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-610300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-201500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-31100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-149100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-332000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-391200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-29300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>280000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>1500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-272100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-102800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>46800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>118800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-272000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>350300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>75900</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-48100</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-328700</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>-148400</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="AA94" s="3">
         <v>-6300</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AB94" s="3">
         <v>10500</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AC94" s="3">
         <v>-269300</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,8 +7184,10 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6796,8 +7263,14 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7346,14 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7429,14 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,235 +7512,259 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-247700</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-190300</v>
+      </c>
+      <c r="F100" s="3">
         <v>-264700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-4200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>13300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>7200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>20000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-5700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>6800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>20700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-7600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-546000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-223200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-254000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>36700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-188000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-534000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>10400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-546500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>-246000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>-86900</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>-241700</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>4600</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>12900</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AB100" s="3">
         <v>-244800</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AC100" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>56900</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-45200</v>
+      </c>
+      <c r="F101" s="3">
         <v>-46900</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>-3500</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>-16900</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>-18700</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>5300</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>-22200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>15900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>15100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>7100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>-21300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>9400</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>-10800</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>4700</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>-1300</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>-1600</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>-4400</v>
       </c>
-      <c r="T101" s="3">
+      <c r="V101" s="3">
         <v>-7900</v>
       </c>
-      <c r="U101" s="3">
+      <c r="W101" s="3">
         <v>3900</v>
       </c>
-      <c r="V101" s="3">
+      <c r="X101" s="3">
         <v>400</v>
       </c>
-      <c r="W101" s="3">
+      <c r="Y101" s="3">
         <v>1500</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Z101" s="3">
         <v>4800</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="AA101" s="3">
         <v>-800</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AB101" s="3">
         <v>-10300</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AC101" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E102" s="3">
+        <v>171000</v>
+      </c>
+      <c r="F102" s="3">
         <v>117300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-311700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-386200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>128400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>405400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-1500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>105700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>153400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>219500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-96100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>80300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-170600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>269900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-19200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-76200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>54000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>148300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>-17300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>63100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>-312100</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>201300</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>198800</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AB102" s="3">
         <v>36100</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AC102" s="3">
         <v>-93200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MNST_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MNST_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="92">
   <si>
     <t>MNST</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,371 +665,397 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1855000</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1698900</v>
+      </c>
+      <c r="F8" s="3">
         <v>1512900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>1624300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>1655300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>1518600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>1425000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>1410600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>1461900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>1243800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>1196300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>1246400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>1093900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>1062100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>1017200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>1133600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>1104000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>946000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>924200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>1016200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>1015900</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>850900</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>810400</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>909500</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AB8" s="3">
         <v>907100</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AC8" s="3">
         <v>742100</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AD8" s="3">
         <v>753800</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AE8" s="3">
         <v>788000</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>880700</v>
+      </c>
+      <c r="E9" s="3">
+        <v>801100</v>
+      </c>
+      <c r="F9" s="3">
         <v>728600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>790600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>875400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>741900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>657500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>621400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>625100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>528900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>522800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>529000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>450300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>442000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>422900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>476600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>458400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>387800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>386700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>422500</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>410500</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>349100</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>319700</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="AA9" s="3">
         <v>351700</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AB9" s="3">
         <v>336400</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AC9" s="3">
         <v>274400</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AD9" s="3">
         <v>267800</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AE9" s="3">
         <v>297100</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>974300</v>
+      </c>
+      <c r="E10" s="3">
+        <v>897800</v>
+      </c>
+      <c r="F10" s="3">
         <v>784300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>833700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>779900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>776700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>767500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>789200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>836800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>714900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>673500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>717400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>643600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>620100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>594300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>657000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>645600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>558200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>537500</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>593700</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>605400</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>501800</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>490700</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="AA10" s="3">
         <v>557800</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AB10" s="3">
         <v>570700</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AC10" s="3">
         <v>467700</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AD10" s="3">
         <v>486000</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AE10" s="3">
         <v>490900</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1059,8 +1085,10 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1142,8 +1170,14 @@
       <c r="AC12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1225,8 +1259,14 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1242,79 +1282,85 @@
       <c r="G14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="3">
-        <v>5300</v>
+      <c r="H14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>8</v>
+      <c r="J14" s="3">
+        <v>5300</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="3">
+      <c r="L14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N14" s="3">
         <v>1700</v>
-      </c>
-      <c r="M14" s="3">
-        <v>3000</v>
-      </c>
-      <c r="N14" s="3">
-        <v>1200</v>
       </c>
       <c r="O14" s="3">
         <v>3000</v>
       </c>
       <c r="P14" s="3">
-        <v>300</v>
+        <v>1200</v>
       </c>
       <c r="Q14" s="3">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="R14" s="3">
         <v>300</v>
       </c>
       <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
+        <v>300</v>
+      </c>
+      <c r="U14" s="3">
         <v>10700</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
         <v>14100</v>
       </c>
-      <c r="V14" s="3">
+      <c r="X14" s="3">
         <v>5500</v>
       </c>
-      <c r="W14" s="3">
+      <c r="Y14" s="3">
         <v>7000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Z14" s="3">
         <v>-500</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="AA14" s="3">
         <v>15900</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AB14" s="3">
         <v>200</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AC14" s="3">
         <v>19900</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AD14" s="3">
         <v>46300</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AE14" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E15" s="3">
         <v>100</v>
@@ -1326,13 +1372,13 @@
         <v>100</v>
       </c>
       <c r="H15" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I15" s="3">
         <v>100</v>
       </c>
       <c r="J15" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K15" s="3">
         <v>100</v>
@@ -1341,38 +1387,38 @@
         <v>100</v>
       </c>
       <c r="M15" s="3">
+        <v>100</v>
+      </c>
+      <c r="N15" s="3">
+        <v>100</v>
+      </c>
+      <c r="O15" s="3">
         <v>200</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>200</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>100</v>
-      </c>
-      <c r="P15" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>200</v>
       </c>
       <c r="R15" s="3">
         <v>100</v>
       </c>
       <c r="S15" s="3">
+        <v>200</v>
+      </c>
+      <c r="T15" s="3">
         <v>100</v>
       </c>
-      <c r="T15" s="3" t="s">
+      <c r="U15" s="3">
+        <v>100</v>
+      </c>
+      <c r="V15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U15" s="3" t="s">
+      <c r="W15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V15" s="3">
-        <v>0</v>
-      </c>
-      <c r="W15" s="3">
-        <v>0</v>
-      </c>
       <c r="X15" s="3">
         <v>0</v>
       </c>
@@ -1391,8 +1437,14 @@
       <c r="AC15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1419,174 +1471,188 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1331200</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1213900</v>
+      </c>
+      <c r="F17" s="3">
         <v>1118600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>1206400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>1282300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>1119100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>1012200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>966100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>936000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>829700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>794000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>787800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>686600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>697100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>700200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>738100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>725100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>634500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>617700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>676600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>658300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>571000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>543200</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>592100</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>557000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AC17" s="3">
         <v>477900</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AD17" s="3">
         <v>502000</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AE17" s="3">
         <v>497600</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>523800</v>
+      </c>
+      <c r="E18" s="3">
+        <v>485000</v>
+      </c>
+      <c r="F18" s="3">
         <v>394300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>417900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>373000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>399500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>412800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>444500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>525900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>414100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>402300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>458600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>407300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>365000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>317000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>395500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>378900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>311500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>306500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>339600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>357600</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>279900</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>267200</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>317400</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AB18" s="3">
         <v>350100</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AC18" s="3">
         <v>264200</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AD18" s="3">
         <v>251800</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AE18" s="3">
         <v>290400</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1616,174 +1682,188 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>15200</v>
+      </c>
+      <c r="E20" s="3">
+        <v>12500</v>
+      </c>
+      <c r="F20" s="3">
         <v>-800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>2100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-6800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-7300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>6200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-2300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-1500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-4600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-1800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>4200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>3100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>3000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>2700</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>4400</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>2900</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>400</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>1800</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>700</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="AA20" s="3">
         <v>4000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AB20" s="3">
         <v>-2600</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AC20" s="3">
         <v>700</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AD20" s="3">
         <v>-5000</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AE20" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>554600</v>
+      </c>
+      <c r="E21" s="3">
+        <v>514400</v>
+      </c>
+      <c r="F21" s="3">
         <v>408700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>435700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>382000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>406800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>428500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>455400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>540600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>427200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>415900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>467900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>421000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>382400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>338200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>414000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>399600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>329100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>325400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>356800</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>372300</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>295700</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>281600</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>333700</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AB21" s="3">
         <v>359100</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AC21" s="3">
         <v>276100</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AD21" s="3">
         <v>257700</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AE21" s="3">
         <v>299900</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1835,18 +1915,18 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-      <c r="T22" s="3" t="s">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+      <c r="V22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U22" s="3" t="s">
+      <c r="W22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V22" s="3">
-        <v>0</v>
-      </c>
-      <c r="W22" s="3">
-        <v>0</v>
-      </c>
       <c r="X22" s="3">
         <v>0</v>
       </c>
@@ -1865,174 +1945,192 @@
       <c r="AC22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>539000</v>
+      </c>
+      <c r="E23" s="3">
+        <v>497600</v>
+      </c>
+      <c r="F23" s="3">
         <v>393500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>420100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>366200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>392200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>419000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>442200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>526800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>413400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>400800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>454000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>405500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>365900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>321200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>398600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>382000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>314200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>310900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>342600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>358100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>281700</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>267800</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>321400</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>347500</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AC23" s="3">
         <v>264900</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AD23" s="3">
         <v>246700</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AE23" s="3">
         <v>289300</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>125100</v>
+      </c>
+      <c r="E24" s="3">
+        <v>100100</v>
+      </c>
+      <c r="F24" s="3">
         <v>91900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>97700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>92800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>98000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>97700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>105000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>123100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>98200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>-70900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>106400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>94100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>87000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>66300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>99600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>89500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>52700</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>70000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>74800</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>88000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>65700</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>24600</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="AA24" s="3">
         <v>102600</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AB24" s="3">
         <v>124900</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AC24" s="3">
         <v>86900</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AD24" s="3">
         <v>73800</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AE24" s="3">
         <v>97700</v>
       </c>
     </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2114,174 +2212,192 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>413900</v>
+      </c>
+      <c r="E26" s="3">
+        <v>397400</v>
+      </c>
+      <c r="F26" s="3">
         <v>301700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>322400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>273400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>294200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>321300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>337200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>403800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>315200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>471700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>347700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>311400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>278800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>255000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>298900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>292500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>261500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>240900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>267700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>270100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>216100</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>243200</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>218700</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AB26" s="3">
         <v>222600</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AC26" s="3">
         <v>178000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AD26" s="3">
         <v>172900</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AE26" s="3">
         <v>191600</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>413900</v>
+      </c>
+      <c r="E27" s="3">
+        <v>397400</v>
+      </c>
+      <c r="F27" s="3">
         <v>301700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>322400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>273400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>294200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>321300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>337200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>403800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>315200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>471700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>347700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>311400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>278800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>255000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>298900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>292500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>261500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>240900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>267700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>270100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>216100</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>243200</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>218700</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AB27" s="3">
         <v>222600</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AC27" s="3">
         <v>178000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AD27" s="3">
         <v>172900</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AE27" s="3">
         <v>191600</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2363,8 +2479,14 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2398,11 +2520,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>8</v>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
@@ -2416,26 +2538,26 @@
       <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T29" s="3">
-        <v>-1800</v>
+      <c r="T29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V29" s="3" t="s">
-        <v>8</v>
+      <c r="V29" s="3">
+        <v>-1800</v>
       </c>
       <c r="W29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X29" s="3">
-        <v>-41900</v>
+      <c r="X29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Y29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z29" s="3" t="s">
-        <v>8</v>
+      <c r="Z29" s="3">
+        <v>-41900</v>
       </c>
       <c r="AA29" s="3" t="s">
         <v>8</v>
@@ -2446,8 +2568,14 @@
       <c r="AC29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2529,8 +2657,14 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2612,174 +2746,192 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-15200</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-12500</v>
+      </c>
+      <c r="F32" s="3">
         <v>800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-2100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>6800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>7300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-6200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>2300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>1500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>4600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>1800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-4200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-3100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-3000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>-2700</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>-4400</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>-2900</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>-400</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>-1800</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>-700</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="AA32" s="3">
         <v>-4000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AB32" s="3">
         <v>2600</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AC32" s="3">
         <v>-700</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AD32" s="3">
         <v>5000</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AE32" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>413900</v>
+      </c>
+      <c r="E33" s="3">
+        <v>397400</v>
+      </c>
+      <c r="F33" s="3">
         <v>301700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>322400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>273400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>294200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>321300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>337200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>403800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>315200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>471700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>347700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>311400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>278800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>255000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>298900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>292500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>261500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>239100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>267700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>270100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>216100</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>201300</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>218700</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AB33" s="3">
         <v>222600</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AC33" s="3">
         <v>178000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AD33" s="3">
         <v>172900</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AE33" s="3">
         <v>191600</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2861,179 +3013,197 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>413900</v>
+      </c>
+      <c r="E35" s="3">
+        <v>397400</v>
+      </c>
+      <c r="F35" s="3">
         <v>301700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>322400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>273400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>294200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>321300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>337200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>403800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>315200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>471700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>347700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>311400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>278800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>255000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>298900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>292500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>261500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>239100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>267700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>270100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>216100</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>201300</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>218700</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AB35" s="3">
         <v>222600</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AC35" s="3">
         <v>178000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AD35" s="3">
         <v>172900</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AE35" s="3">
         <v>191600</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3063,8 +3233,10 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3094,755 +3266,811 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1869800</v>
+      </c>
+      <c r="E41" s="3">
+        <v>1672700</v>
+      </c>
+      <c r="F41" s="3">
         <v>1307100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>1303000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>1132000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>1014800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>1326500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>1712700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>1584200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>1178900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>1180400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>1074700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>921300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>701800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>798000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>717600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>888200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>618300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>637500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>713700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>659700</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>511400</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>528600</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>465600</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AB41" s="3">
         <v>777700</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AC41" s="3">
         <v>576300</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AD41" s="3">
         <v>377600</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AE41" s="3">
         <v>341500</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>1417200</v>
+      </c>
+      <c r="E42" s="3">
+        <v>1383000</v>
+      </c>
+      <c r="F42" s="3">
         <v>1362300</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>1346800</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>1337800</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>1717600</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>1749700</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>1224100</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>969000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>980100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>881400</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>599300</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>250800</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>233500</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>533100</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>587400</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>358000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>263700</v>
       </c>
-      <c r="T42" s="3">
+      <c r="V42" s="3">
         <v>320700</v>
       </c>
-      <c r="U42" s="3">
+      <c r="W42" s="3">
         <v>457900</v>
       </c>
-      <c r="V42" s="3">
+      <c r="X42" s="3">
         <v>211100</v>
       </c>
-      <c r="W42" s="3">
+      <c r="Y42" s="3">
         <v>585200</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Z42" s="3">
         <v>672900</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="AA42" s="3">
         <v>630300</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AB42" s="3">
         <v>323900</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AC42" s="3">
         <v>209400</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AD42" s="3">
         <v>220600</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AE42" s="3">
         <v>257700</v>
       </c>
     </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1333000</v>
+      </c>
+      <c r="E43" s="3">
+        <v>1190400</v>
+      </c>
+      <c r="F43" s="3">
         <v>1016200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>1051600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>1175600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>1039800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>896700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>849200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>909200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>802500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>666000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>740800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>760400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>670600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>540300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>648000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>688200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>596700</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>484600</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>620200</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>592600</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>525500</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>449500</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="AA43" s="3">
         <v>535300</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AB43" s="3">
         <v>537100</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AC43" s="3">
         <v>572000</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AD43" s="3">
         <v>573100</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AE43" s="3">
         <v>592300</v>
       </c>
     </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>846800</v>
+      </c>
+      <c r="E44" s="3">
+        <v>906700</v>
+      </c>
+      <c r="F44" s="3">
         <v>935600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>863000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>885900</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>821100</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>593400</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>471600</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>382900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>368400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>333100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>319000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>340500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>352300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>360700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>317700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>299500</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>300800</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>277700</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>262100</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>275600</v>
       </c>
-      <c r="W44" s="3">
+      <c r="Y44" s="3">
         <v>268600</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Z44" s="3">
         <v>255700</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="AA44" s="3">
         <v>213300</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AB44" s="3">
         <v>190600</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AC44" s="3">
         <v>171300</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AD44" s="3">
         <v>162000</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AE44" s="3">
         <v>167800</v>
       </c>
     </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>187300</v>
+      </c>
+      <c r="E45" s="3">
+        <v>141800</v>
+      </c>
+      <c r="F45" s="3">
         <v>143600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>132200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>165300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>150300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>115900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>126200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>105400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>104000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>80100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>92000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>98400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>90500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>84200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>90100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>92800</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>127800</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>83700</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>98800</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>89800</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>147900</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Z45" s="3">
         <v>179600</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="AA45" s="3">
         <v>89700</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AB45" s="3">
         <v>50900</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AC45" s="3">
         <v>87800</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AD45" s="3">
         <v>99100</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AE45" s="3">
         <v>190700</v>
       </c>
     </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>5654100</v>
+      </c>
+      <c r="E46" s="3">
+        <v>5294600</v>
+      </c>
+      <c r="F46" s="3">
         <v>4764900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>4696700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>4696600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>4743700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>4682100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>4383700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>3950700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>3433900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>3141000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>2825800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>2371500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>2048700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>2316300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>2360800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>2326800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>1907300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>1804200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>2152700</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>1828700</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>2038500</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>2086400</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>1934300</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AB46" s="3">
         <v>1880100</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AC46" s="3">
         <v>1616800</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AD46" s="3">
         <v>1432300</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AE46" s="3">
         <v>1550000</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>62200</v>
+      </c>
+      <c r="E47" s="3">
+        <v>41200</v>
+      </c>
+      <c r="F47" s="3">
         <v>61400</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>72400</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>65400</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>67000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>100800</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>29700</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>92400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>65300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>44300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>20600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>2100</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>13900</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>12900</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>16300</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>8900</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>1900</v>
       </c>
-      <c r="T47" s="3">
-        <v>0</v>
-      </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+      <c r="W47" s="3">
         <v>1600</v>
       </c>
-      <c r="V47" s="3">
-        <v>0</v>
-      </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y47" s="3">
         <v>3500</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Z47" s="3">
         <v>2400</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="AA47" s="3">
         <v>7000</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AB47" s="3">
         <v>48600</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AC47" s="3">
         <v>500</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AD47" s="3">
         <v>2400</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AE47" s="3">
         <v>9500</v>
       </c>
     </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>613800</v>
+      </c>
+      <c r="E48" s="3">
+        <v>582100</v>
+      </c>
+      <c r="F48" s="3">
         <v>554900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>522600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>502000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>441600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>336900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>329800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>330200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>334000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>337400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>327700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>325700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>326200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>330000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>276600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>265500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>266800</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>243100</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>242900</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>240700</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>231200</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>230300</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AA48" s="3">
         <v>225400</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AB48" s="3">
         <v>211600</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AC48" s="3">
         <v>189600</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AD48" s="3">
         <v>173300</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AE48" s="3">
         <v>144600</v>
       </c>
     </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2642000</v>
+      </c>
+      <c r="E49" s="3">
+        <v>2640500</v>
+      </c>
+      <c r="F49" s="3">
         <v>2638400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>2638800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>2636100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>2644000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>2404000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>2397700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>2390000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>2394700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>2390700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>2391200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>2387200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>2384800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>2383700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>2379100</v>
-      </c>
-      <c r="R49" s="3">
-        <v>2377500</v>
-      </c>
-      <c r="S49" s="3">
-        <v>2374500</v>
       </c>
       <c r="T49" s="3">
         <v>2377500</v>
       </c>
       <c r="U49" s="3">
+        <v>2374500</v>
+      </c>
+      <c r="V49" s="3">
+        <v>2377500</v>
+      </c>
+      <c r="W49" s="3">
         <v>2373900</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>2371000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>2368300</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Z49" s="3">
         <v>2365700</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="AA49" s="3">
         <v>2365100</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AB49" s="3">
         <v>2364500</v>
-      </c>
-      <c r="AA49" s="3">
-        <v>2364500</v>
-      </c>
-      <c r="AB49" s="3">
-        <v>2364300</v>
       </c>
       <c r="AC49" s="3">
         <v>2364500</v>
       </c>
-    </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD49" s="3">
+        <v>2364300</v>
+      </c>
+      <c r="AE49" s="3">
+        <v>2364500</v>
+      </c>
+    </row>
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3924,8 +4152,14 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4007,91 +4241,103 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>291200</v>
+      </c>
+      <c r="E52" s="3">
+        <v>285900</v>
+      </c>
+      <c r="F52" s="3">
         <v>273500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>274300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>274900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>291200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>280900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>308600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>308200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>306600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>289400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>132400</v>
-      </c>
-      <c r="N52" s="3">
-        <v>107400</v>
-      </c>
-      <c r="O52" s="3">
-        <v>107900</v>
       </c>
       <c r="P52" s="3">
         <v>107400</v>
       </c>
       <c r="Q52" s="3">
+        <v>107900</v>
+      </c>
+      <c r="R52" s="3">
+        <v>107400</v>
+      </c>
+      <c r="S52" s="3">
         <v>104600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>105700</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>105400</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>102100</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>100300</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>101700</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>98600</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Z52" s="3">
         <v>106300</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="AA52" s="3">
         <v>177100</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AB52" s="3">
         <v>179300</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AC52" s="3">
         <v>178300</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AD52" s="3">
         <v>181200</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AE52" s="3">
         <v>167800</v>
       </c>
     </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4173,91 +4419,103 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>9263300</v>
+      </c>
+      <c r="E54" s="3">
+        <v>8844400</v>
+      </c>
+      <c r="F54" s="3">
         <v>8293100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>8204800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>8175000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>8187500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>7804800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>7449400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>7071500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>6534400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>6202700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>5697700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>5193800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>4881500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>5150400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>5137400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>5084300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>4655900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>4526900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>4871400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>4542100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>4740100</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>4791000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>4708900</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>4684100</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AC54" s="3">
         <v>4349700</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AD54" s="3">
         <v>4153500</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AE54" s="3">
         <v>4236400</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4287,8 +4545,10 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4318,147 +4578,155 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>568600</v>
+      </c>
+      <c r="E57" s="3">
+        <v>491200</v>
+      </c>
+      <c r="F57" s="3">
         <v>444300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>520200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>492900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>438300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>404300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>396200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>362900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>334100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>296800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>281500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>262000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>305500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>274000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>304800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>292600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>267700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>248800</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>278900</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>267100</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>226100</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>245900</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>229600</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AB57" s="3">
         <v>242700</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AC57" s="3">
         <v>178100</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AD57" s="3">
         <v>193300</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AE57" s="3">
         <v>172200</v>
       </c>
     </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E58" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F58" s="3">
         <v>800</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>900</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>1300</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>1200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>1000</v>
-      </c>
-      <c r="I58" s="3">
-        <v>1600</v>
-      </c>
-      <c r="J58" s="3">
-        <v>1700</v>
       </c>
       <c r="K58" s="3">
         <v>1600</v>
       </c>
       <c r="L58" s="3">
+        <v>1700</v>
+      </c>
+      <c r="M58" s="3">
+        <v>1600</v>
+      </c>
+      <c r="N58" s="3">
         <v>800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>1200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>1800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>2200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>1500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>1800</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>1200</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>900</v>
-      </c>
-      <c r="T58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="V58" s="3" t="s">
         <v>8</v>
@@ -4466,11 +4734,11 @@
       <c r="W58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X58" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y58" s="3">
-        <v>0</v>
+      <c r="X58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Z58" s="3">
         <v>0</v>
@@ -4484,174 +4752,192 @@
       <c r="AC58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>589800</v>
+      </c>
+      <c r="E59" s="3">
+        <v>693900</v>
+      </c>
+      <c r="F59" s="3">
         <v>557000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>600600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>599400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>604900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>559900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>534400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>522900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>453200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>452400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>491000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>411100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>393800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>385600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>407600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>411700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>362400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>352400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>377400</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>347100</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>308000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>314400</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>368100</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AB59" s="3">
         <v>318500</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AC59" s="3">
         <v>291700</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AD59" s="3">
         <v>277300</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AE59" s="3">
         <v>300500</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1162600</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1187500</v>
+      </c>
+      <c r="F60" s="3">
         <v>1002000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>1121700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>1093600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>1044400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>965100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>932200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>887500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>788900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>750000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>773800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>674900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>701500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>661100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>714200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>705500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>631000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>601100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>656400</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>614200</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>534000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>560400</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>597700</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AB60" s="3">
         <v>561200</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AC60" s="3">
         <v>469800</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AD60" s="3">
         <v>470600</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AE60" s="3">
         <v>472600</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4662,14 +4948,14 @@
         <v>0</v>
       </c>
       <c r="F61" s="3">
+        <v>0</v>
+      </c>
+      <c r="G61" s="3">
+        <v>0</v>
+      </c>
+      <c r="H61" s="3">
         <v>100</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
@@ -4733,91 +5019,103 @@
       <c r="AC61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>259300</v>
+      </c>
+      <c r="E62" s="3">
+        <v>261500</v>
+      </c>
+      <c r="F62" s="3">
         <v>266000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>267300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>272200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>276400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>272700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>272100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>278500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>286000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>291800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>294600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>297400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>309000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>318000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>315200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>321200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>326100</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>314800</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>321700</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>322700</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>330500</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Z62" s="3">
         <v>335400</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="AA62" s="3">
         <v>343100</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AB62" s="3">
         <v>346900</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AC62" s="3">
         <v>349700</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AD62" s="3">
         <v>353200</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AE62" s="3">
         <v>365400</v>
       </c>
     </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4899,8 +5197,14 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4982,8 +5286,14 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5065,91 +5375,103 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1421900</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1449000</v>
+      </c>
+      <c r="F66" s="3">
         <v>1268100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>1389000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>1365800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>1320800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>1237800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>1204400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>1166000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>1074900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>1041900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>1068400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>972300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>1010600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>979100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>1029400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>1026700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>957000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>916000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>978100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>936900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>864500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>895800</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>940800</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>908100</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AC66" s="3">
         <v>819500</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AD66" s="3">
         <v>823800</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AE66" s="3">
         <v>838000</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5179,8 +5501,10 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5262,8 +5586,14 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5345,8 +5675,14 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5428,8 +5764,14 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5511,91 +5853,103 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>5120100</v>
+      </c>
+      <c r="E72" s="3">
+        <v>4706200</v>
+      </c>
+      <c r="F72" s="3">
         <v>9001200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>8699500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>8377100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>8103800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>7809500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>7488200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>7151000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>6747300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>6432100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>5960300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>5612700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>5301300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>5022500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>4767500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>4468600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>4176100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>3914600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>3675500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>3407800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>3137700</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>2928200</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>2726900</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>2508200</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AC72" s="3">
         <v>2285500</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AD72" s="3">
         <v>2107500</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AE72" s="3">
         <v>1934600</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5677,8 +6031,14 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5760,8 +6120,14 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5843,91 +6209,103 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>7841500</v>
+      </c>
+      <c r="E76" s="3">
+        <v>7395400</v>
+      </c>
+      <c r="F76" s="3">
         <v>7025000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>6815800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>6809200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>6866700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>6567000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>6245000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>5905500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>5459400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>5160900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>4629300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>4221500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>3870900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>4171300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>4108000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>4057600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>3698800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>3610900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>3893300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>3605200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>3875600</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>3895200</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>3768200</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>3776000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AC76" s="3">
         <v>3530200</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AD76" s="3">
         <v>3329700</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AE76" s="3">
         <v>3398400</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6009,179 +6387,197 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>413900</v>
+      </c>
+      <c r="E81" s="3">
+        <v>397400</v>
+      </c>
+      <c r="F81" s="3">
         <v>301700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>322400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>273400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>294200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>321300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>337200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>403800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>315200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>471700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>347700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>311400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>278800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>255000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>298900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>292500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>261500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>239100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>267700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>270100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>216100</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>201300</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>218700</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AB81" s="3">
         <v>222600</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AC81" s="3">
         <v>178000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AD81" s="3">
         <v>172900</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AE81" s="3">
         <v>191600</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6211,91 +6607,99 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>15600</v>
+      </c>
+      <c r="E83" s="3">
+        <v>16800</v>
+      </c>
+      <c r="F83" s="3">
         <v>15200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>15600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>15800</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>14600</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>9400</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>13200</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>13700</v>
-      </c>
-      <c r="K83" s="3">
-        <v>13800</v>
-      </c>
-      <c r="L83" s="3">
-        <v>15100</v>
       </c>
       <c r="M83" s="3">
         <v>13800</v>
       </c>
       <c r="N83" s="3">
+        <v>15100</v>
+      </c>
+      <c r="O83" s="3">
+        <v>13800</v>
+      </c>
+      <c r="P83" s="3">
         <v>15500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>16500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>17000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>15400</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>17600</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>14900</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>14500</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>14300</v>
       </c>
-      <c r="V83" s="3">
+      <c r="X83" s="3">
         <v>14200</v>
       </c>
-      <c r="W83" s="3">
+      <c r="Y83" s="3">
         <v>14000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Z83" s="3">
         <v>13800</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="AA83" s="3">
         <v>12300</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AB83" s="3">
         <v>11600</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AC83" s="3">
         <v>11200</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AD83" s="3">
         <v>11000</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AE83" s="3">
         <v>10500</v>
       </c>
     </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6377,8 +6781,14 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6460,8 +6870,14 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6543,8 +6959,14 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6626,8 +7048,14 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6709,91 +7137,103 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>338700</v>
+      </c>
+      <c r="E89" s="3">
+        <v>424500</v>
+      </c>
+      <c r="F89" s="3">
         <v>298500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>458500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>131000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>227800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>341400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>411100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>175500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>414900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>508800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>249300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>191100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>292700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>366300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>331400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>123400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>340500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>320100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>352400</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>148900</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>197700</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>256800</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AB89" s="3">
         <v>340300</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AC89" s="3">
         <v>193000</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AD89" s="3">
         <v>280700</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AE89" s="3">
         <v>173100</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6823,91 +7263,99 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-42300</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-40100</v>
+      </c>
+      <c r="F91" s="3">
         <v>-52600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-36700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-77900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-21500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-15700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-12600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-7100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-8400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-6700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-12900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-18000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-11100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-57300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-23300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-12600</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-8500</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-12100</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-15200</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-21600</v>
       </c>
-      <c r="W91" s="3">
+      <c r="Y91" s="3">
         <v>-13000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Z91" s="3">
         <v>-15700</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="AA91" s="3">
         <v>-27300</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AB91" s="3">
         <v>-21400</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AC91" s="3">
         <v>-19100</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AD91" s="3">
         <v>-32300</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AE91" s="3">
         <v>-49700</v>
       </c>
     </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6989,8 +7437,14 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7072,91 +7526,103 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-105400</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-52800</v>
+      </c>
+      <c r="F94" s="3">
         <v>-103600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-52000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>297900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-303600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-610300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-201500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-31100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-149100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-332000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-391200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-29300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>280000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>1500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-272100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-102800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>46800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>118800</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-272000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>350300</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>75900</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>-48100</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="AA94" s="3">
         <v>-328700</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AB94" s="3">
         <v>-148400</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AC94" s="3">
         <v>-6300</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AD94" s="3">
         <v>10500</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AE94" s="3">
         <v>-269300</v>
       </c>
     </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7186,8 +7652,10 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7269,8 +7737,14 @@
       <c r="AC96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7352,8 +7826,14 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7435,8 +7915,14 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7518,253 +8004,277 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-31800</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="F100" s="3">
         <v>-247700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-190300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-264700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-4200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>13300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>7200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>20000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-5700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>6800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>20700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-7600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-546000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-223200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-254000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>36700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-188000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-534000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>10400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>-546500</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>-246000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>-86900</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>-241700</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AB100" s="3">
         <v>4600</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AC100" s="3">
         <v>12900</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AD100" s="3">
         <v>-244800</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AE100" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F101" s="3">
         <v>56900</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>-45200</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>-46900</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>-3500</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>-16900</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>-18700</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>5300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-22200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>15900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>15100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>7100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>-21300</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>9400</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>-10800</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>4700</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>-1300</v>
       </c>
-      <c r="T101" s="3">
+      <c r="V101" s="3">
         <v>-1600</v>
       </c>
-      <c r="U101" s="3">
+      <c r="W101" s="3">
         <v>-4400</v>
       </c>
-      <c r="V101" s="3">
+      <c r="X101" s="3">
         <v>-7900</v>
       </c>
-      <c r="W101" s="3">
+      <c r="Y101" s="3">
         <v>3900</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Z101" s="3">
         <v>400</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="AA101" s="3">
         <v>1500</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AB101" s="3">
         <v>4800</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AC101" s="3">
         <v>-800</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AD101" s="3">
         <v>-10300</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AE101" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>197100</v>
+      </c>
+      <c r="E102" s="3">
+        <v>365500</v>
+      </c>
+      <c r="F102" s="3">
         <v>4100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>171000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>117300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-311700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-386200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>128400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>405400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-1500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>105700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>153400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>219500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-96100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>80300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-170600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>269900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-19200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>-76200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>54000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>148300</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>-17300</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>63100</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>-312100</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AB102" s="3">
         <v>201300</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AC102" s="3">
         <v>198800</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AD102" s="3">
         <v>36100</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AE102" s="3">
         <v>-93200</v>
       </c>
     </row>
